--- a/template/02.xlsx
+++ b/template/02.xlsx
@@ -1123,7 +1123,7 @@
     <t xml:space="preserve">TBE 450 ML K24</t>
   </si>
   <si>
-    <t xml:space="preserve">0709003</t>
+    <t xml:space="preserve">0709001</t>
   </si>
   <si>
     <t xml:space="preserve">BJTBE450002</t>
@@ -3653,7 +3653,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3663,10 +3663,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3899,11 +3895,11 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E137" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
+      <selection pane="bottomRight" activeCell="G148" activeCellId="0" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7583,7 +7579,7 @@
       <c r="E117" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F117" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G117" s="1" t="n">
@@ -7615,7 +7611,7 @@
       <c r="E118" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G118" s="1" t="n">
@@ -7647,7 +7643,7 @@
       <c r="E119" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="F119" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G119" s="1" t="n">
@@ -7679,7 +7675,7 @@
       <c r="E120" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G120" s="1" t="n">
@@ -10288,329 +10284,329 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="4" t="s">
+    <row r="204" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D204" s="4" t="n">
+      <c r="D204" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E204" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F204" s="4" t="s">
+      <c r="E204" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="G204" s="4" t="n">
+      <c r="G204" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H204" s="4" t="n">
+      <c r="H204" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I204" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA204" s="4"/>
-      <c r="XFB204" s="4"/>
-      <c r="XFC204" s="4"/>
-      <c r="XFD204" s="4"/>
-    </row>
-    <row r="205" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="4" t="s">
+      <c r="I204" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA204" s="3"/>
+      <c r="XFB204" s="3"/>
+      <c r="XFC204" s="3"/>
+      <c r="XFD204" s="3"/>
+    </row>
+    <row r="205" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D205" s="4" t="n">
+      <c r="D205" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E205" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F205" s="4" t="s">
+      <c r="E205" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F205" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="G205" s="4" t="n">
+      <c r="G205" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H205" s="4" t="n">
+      <c r="H205" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I205" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J205" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA205" s="4"/>
-      <c r="XFB205" s="4"/>
-      <c r="XFC205" s="4"/>
-      <c r="XFD205" s="4"/>
-    </row>
-    <row r="206" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="4" t="s">
+      <c r="I205" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA205" s="3"/>
+      <c r="XFB205" s="3"/>
+      <c r="XFC205" s="3"/>
+      <c r="XFD205" s="3"/>
+    </row>
+    <row r="206" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C206" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D206" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E206" s="4" t="n">
+      <c r="D206" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F206" s="4" t="s">
+      <c r="F206" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="G206" s="4" t="n">
+      <c r="G206" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H206" s="4" t="n">
+      <c r="H206" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I206" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J206" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA206" s="4"/>
-      <c r="XFB206" s="4"/>
-      <c r="XFC206" s="4"/>
-      <c r="XFD206" s="4"/>
-    </row>
-    <row r="207" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="4" t="s">
+      <c r="I206" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA206" s="3"/>
+      <c r="XFB206" s="3"/>
+      <c r="XFC206" s="3"/>
+      <c r="XFD206" s="3"/>
+    </row>
+    <row r="207" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C207" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D207" s="4" t="n">
+      <c r="D207" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="E207" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F207" s="4" t="s">
+      <c r="E207" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F207" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="G207" s="4" t="n">
+      <c r="G207" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="H207" s="4" t="n">
+      <c r="H207" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I207" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J207" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA207" s="4"/>
-      <c r="XFB207" s="4"/>
-      <c r="XFC207" s="4"/>
-      <c r="XFD207" s="4"/>
-    </row>
-    <row r="208" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="4" t="s">
+      <c r="I207" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA207" s="3"/>
+      <c r="XFB207" s="3"/>
+      <c r="XFC207" s="3"/>
+      <c r="XFD207" s="3"/>
+    </row>
+    <row r="208" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D208" s="4" t="n">
+      <c r="D208" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F208" s="4" t="s">
+      <c r="E208" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F208" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="G208" s="4" t="n">
+      <c r="G208" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="H208" s="4" t="n">
+      <c r="H208" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I208" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J208" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA208" s="4"/>
-      <c r="XFB208" s="4"/>
-      <c r="XFC208" s="4"/>
-      <c r="XFD208" s="4"/>
-    </row>
-    <row r="209" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="4" t="s">
+      <c r="I208" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA208" s="3"/>
+      <c r="XFB208" s="3"/>
+      <c r="XFC208" s="3"/>
+      <c r="XFD208" s="3"/>
+    </row>
+    <row r="209" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D209" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E209" s="4" t="n">
+      <c r="D209" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E209" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F209" s="4" t="s">
+      <c r="F209" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="G209" s="4" t="n">
+      <c r="G209" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="H209" s="4" t="n">
+      <c r="H209" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I209" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J209" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA209" s="4"/>
-      <c r="XFB209" s="4"/>
-      <c r="XFC209" s="4"/>
-      <c r="XFD209" s="4"/>
-    </row>
-    <row r="210" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="4" t="s">
+      <c r="I209" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA209" s="3"/>
+      <c r="XFB209" s="3"/>
+      <c r="XFC209" s="3"/>
+      <c r="XFD209" s="3"/>
+    </row>
+    <row r="210" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D210" s="4" t="n">
+      <c r="D210" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="E210" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F210" s="4" t="s">
+      <c r="E210" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="G210" s="4" t="n">
+      <c r="G210" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="H210" s="4" t="n">
+      <c r="H210" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I210" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J210" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA210" s="4"/>
-      <c r="XFB210" s="4"/>
-      <c r="XFC210" s="4"/>
-      <c r="XFD210" s="4"/>
-    </row>
-    <row r="211" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="4" t="s">
+      <c r="I210" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA210" s="3"/>
+      <c r="XFB210" s="3"/>
+      <c r="XFC210" s="3"/>
+      <c r="XFD210" s="3"/>
+    </row>
+    <row r="211" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C211" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D211" s="4" t="n">
+      <c r="D211" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E211" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F211" s="4" t="s">
+      <c r="E211" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F211" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="G211" s="4" t="n">
+      <c r="G211" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="H211" s="4" t="n">
+      <c r="H211" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I211" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J211" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA211" s="4"/>
-      <c r="XFB211" s="4"/>
-      <c r="XFC211" s="4"/>
-      <c r="XFD211" s="4"/>
-    </row>
-    <row r="212" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="4" t="s">
+      <c r="I211" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA211" s="3"/>
+      <c r="XFB211" s="3"/>
+      <c r="XFC211" s="3"/>
+      <c r="XFD211" s="3"/>
+    </row>
+    <row r="212" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C212" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D212" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E212" s="4" t="n">
+      <c r="D212" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E212" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F212" s="4" t="s">
+      <c r="F212" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="G212" s="4" t="n">
+      <c r="G212" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="H212" s="4" t="n">
+      <c r="H212" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I212" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J212" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA212" s="4"/>
-      <c r="XFB212" s="4"/>
-      <c r="XFC212" s="4"/>
-      <c r="XFD212" s="4"/>
+      <c r="I212" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA212" s="3"/>
+      <c r="XFB212" s="3"/>
+      <c r="XFC212" s="3"/>
+      <c r="XFD212" s="3"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
@@ -10699,113 +10695,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="4" t="s">
+    <row r="216" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D216" s="4" t="n">
+      <c r="D216" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E216" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F216" s="5" t="s">
+      <c r="E216" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="G216" s="4" t="n">
+      <c r="G216" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H216" s="4" t="n">
+      <c r="H216" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I216" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J216" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA216" s="4"/>
-      <c r="XFB216" s="4"/>
-      <c r="XFC216" s="4"/>
-      <c r="XFD216" s="4"/>
-    </row>
-    <row r="217" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="4" t="s">
+      <c r="I216" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA216" s="3"/>
+      <c r="XFB216" s="3"/>
+      <c r="XFC216" s="3"/>
+      <c r="XFD216" s="3"/>
+    </row>
+    <row r="217" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C217" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D217" s="4" t="n">
+      <c r="D217" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E217" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F217" s="5" t="s">
+      <c r="E217" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F217" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="G217" s="4" t="n">
+      <c r="G217" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H217" s="4" t="n">
+      <c r="H217" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I217" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J217" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA217" s="4"/>
-      <c r="XFB217" s="4"/>
-      <c r="XFC217" s="4"/>
-      <c r="XFD217" s="4"/>
-    </row>
-    <row r="218" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="4" t="s">
+      <c r="I217" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA217" s="3"/>
+      <c r="XFB217" s="3"/>
+      <c r="XFC217" s="3"/>
+      <c r="XFD217" s="3"/>
+    </row>
+    <row r="218" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C218" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D218" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E218" s="4" t="n">
+      <c r="D218" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E218" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F218" s="5" t="s">
+      <c r="F218" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="G218" s="4" t="n">
+      <c r="G218" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H218" s="4" t="n">
+      <c r="H218" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I218" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J218" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA218" s="4"/>
-      <c r="XFB218" s="4"/>
-      <c r="XFC218" s="4"/>
-      <c r="XFD218" s="4"/>
+      <c r="I218" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA218" s="3"/>
+      <c r="XFB218" s="3"/>
+      <c r="XFC218" s="3"/>
+      <c r="XFD218" s="3"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
@@ -10894,113 +10890,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="4" t="s">
+    <row r="222" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C222" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D222" s="4" t="n">
+      <c r="D222" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="E222" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F222" s="5" t="s">
+      <c r="E222" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="G222" s="5" t="n">
+      <c r="G222" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="H222" s="5" t="n">
+      <c r="H222" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I222" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J222" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA222" s="4"/>
-      <c r="XFB222" s="4"/>
-      <c r="XFC222" s="4"/>
-      <c r="XFD222" s="4"/>
-    </row>
-    <row r="223" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="4" t="s">
+      <c r="I222" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA222" s="3"/>
+      <c r="XFB222" s="3"/>
+      <c r="XFC222" s="3"/>
+      <c r="XFD222" s="3"/>
+    </row>
+    <row r="223" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C223" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D223" s="4" t="n">
+      <c r="D223" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E223" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F223" s="5" t="s">
+      <c r="E223" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F223" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="G223" s="5" t="n">
+      <c r="G223" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="H223" s="5" t="n">
+      <c r="H223" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I223" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J223" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA223" s="4"/>
-      <c r="XFB223" s="4"/>
-      <c r="XFC223" s="4"/>
-      <c r="XFD223" s="4"/>
-    </row>
-    <row r="224" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="4" t="s">
+      <c r="I223" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA223" s="3"/>
+      <c r="XFB223" s="3"/>
+      <c r="XFC223" s="3"/>
+      <c r="XFD223" s="3"/>
+    </row>
+    <row r="224" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C224" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D224" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E224" s="4" t="n">
+      <c r="D224" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E224" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F224" s="5" t="s">
+      <c r="F224" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="G224" s="5" t="n">
+      <c r="G224" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="H224" s="5" t="n">
+      <c r="H224" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I224" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J224" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA224" s="4"/>
-      <c r="XFB224" s="4"/>
-      <c r="XFC224" s="4"/>
-      <c r="XFD224" s="4"/>
+      <c r="I224" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA224" s="3"/>
+      <c r="XFB224" s="3"/>
+      <c r="XFC224" s="3"/>
+      <c r="XFD224" s="3"/>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
@@ -11176,113 +11172,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="4" t="s">
+    <row r="231" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C231" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D231" s="4" t="n">
+      <c r="D231" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E231" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F231" s="4" t="s">
+      <c r="E231" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="G231" s="4" t="n">
+      <c r="G231" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H231" s="4" t="n">
+      <c r="H231" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I231" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J231" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA231" s="4"/>
-      <c r="XFB231" s="4"/>
-      <c r="XFC231" s="4"/>
-      <c r="XFD231" s="4"/>
-    </row>
-    <row r="232" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="4" t="s">
+      <c r="I231" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA231" s="3"/>
+      <c r="XFB231" s="3"/>
+      <c r="XFC231" s="3"/>
+      <c r="XFD231" s="3"/>
+    </row>
+    <row r="232" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D232" s="4" t="n">
+      <c r="D232" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E232" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F232" s="4" t="s">
+      <c r="E232" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F232" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="G232" s="4" t="n">
+      <c r="G232" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H232" s="4" t="n">
+      <c r="H232" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I232" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J232" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA232" s="4"/>
-      <c r="XFB232" s="4"/>
-      <c r="XFC232" s="4"/>
-      <c r="XFD232" s="4"/>
-    </row>
-    <row r="233" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="4" t="s">
+      <c r="I232" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA232" s="3"/>
+      <c r="XFB232" s="3"/>
+      <c r="XFC232" s="3"/>
+      <c r="XFD232" s="3"/>
+    </row>
+    <row r="233" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C233" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D233" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E233" s="4" t="n">
+      <c r="D233" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E233" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F233" s="4" t="s">
+      <c r="F233" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="G233" s="4" t="n">
+      <c r="G233" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H233" s="4" t="n">
+      <c r="H233" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I233" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J233" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA233" s="4"/>
-      <c r="XFB233" s="4"/>
-      <c r="XFC233" s="4"/>
-      <c r="XFD233" s="4"/>
+      <c r="I233" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA233" s="3"/>
+      <c r="XFB233" s="3"/>
+      <c r="XFC233" s="3"/>
+      <c r="XFD233" s="3"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
@@ -11632,113 +11628,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="4" t="s">
+    <row r="246" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C246" s="4" t="s">
+      <c r="C246" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D246" s="4" t="n">
+      <c r="D246" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E246" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F246" s="4" t="s">
+      <c r="E246" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="G246" s="4" t="n">
+      <c r="G246" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H246" s="4" t="n">
+      <c r="H246" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I246" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J246" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA246" s="4"/>
-      <c r="XFB246" s="4"/>
-      <c r="XFC246" s="4"/>
-      <c r="XFD246" s="4"/>
-    </row>
-    <row r="247" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="4" t="s">
+      <c r="I246" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA246" s="3"/>
+      <c r="XFB246" s="3"/>
+      <c r="XFC246" s="3"/>
+      <c r="XFD246" s="3"/>
+    </row>
+    <row r="247" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="C247" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D247" s="4" t="n">
+      <c r="D247" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E247" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F247" s="4" t="s">
+      <c r="E247" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F247" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="G247" s="4" t="n">
+      <c r="G247" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H247" s="4" t="n">
+      <c r="H247" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I247" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J247" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA247" s="4"/>
-      <c r="XFB247" s="4"/>
-      <c r="XFC247" s="4"/>
-      <c r="XFD247" s="4"/>
-    </row>
-    <row r="248" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="4" t="s">
+      <c r="I247" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA247" s="3"/>
+      <c r="XFB247" s="3"/>
+      <c r="XFC247" s="3"/>
+      <c r="XFD247" s="3"/>
+    </row>
+    <row r="248" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="C248" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D248" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E248" s="4" t="n">
+      <c r="D248" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E248" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F248" s="4" t="s">
+      <c r="F248" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="G248" s="4" t="n">
+      <c r="G248" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H248" s="4" t="n">
+      <c r="H248" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I248" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J248" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA248" s="4"/>
-      <c r="XFB248" s="4"/>
-      <c r="XFC248" s="4"/>
-      <c r="XFD248" s="4"/>
+      <c r="I248" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA248" s="3"/>
+      <c r="XFB248" s="3"/>
+      <c r="XFC248" s="3"/>
+      <c r="XFD248" s="3"/>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
@@ -11918,7 +11914,7 @@
       <c r="A255" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" s="3" t="s">
         <v>610</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -11950,7 +11946,7 @@
       <c r="A256" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="3" t="s">
         <v>613</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -11982,7 +11978,7 @@
       <c r="A257" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" s="3" t="s">
         <v>615</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -12010,119 +12006,119 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="4" t="s">
+    <row r="258" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C258" s="4" t="s">
+      <c r="C258" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D258" s="4" t="n">
+      <c r="D258" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E258" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F258" s="4" t="s">
+      <c r="E258" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="G258" s="4" t="n">
+      <c r="G258" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H258" s="4" t="n">
+      <c r="H258" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I258" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J258" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA258" s="4"/>
-      <c r="XFB258" s="4"/>
-      <c r="XFC258" s="4"/>
-      <c r="XFD258" s="4"/>
-    </row>
-    <row r="259" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="4" t="s">
+      <c r="I258" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA258" s="3"/>
+      <c r="XFB258" s="3"/>
+      <c r="XFC258" s="3"/>
+      <c r="XFD258" s="3"/>
+    </row>
+    <row r="259" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="C259" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D259" s="4" t="n">
+      <c r="D259" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E259" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F259" s="4" t="s">
+      <c r="E259" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F259" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="G259" s="4" t="n">
+      <c r="G259" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H259" s="4" t="n">
+      <c r="H259" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I259" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J259" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA259" s="4"/>
-      <c r="XFB259" s="4"/>
-      <c r="XFC259" s="4"/>
-      <c r="XFD259" s="4"/>
-    </row>
-    <row r="260" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="4" t="s">
+      <c r="I259" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA259" s="3"/>
+      <c r="XFB259" s="3"/>
+      <c r="XFC259" s="3"/>
+      <c r="XFD259" s="3"/>
+    </row>
+    <row r="260" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C260" s="4" t="s">
+      <c r="C260" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D260" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E260" s="4" t="n">
+      <c r="D260" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E260" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F260" s="4" t="s">
+      <c r="F260" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="G260" s="4" t="n">
+      <c r="G260" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H260" s="4" t="n">
+      <c r="H260" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I260" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J260" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA260" s="4"/>
-      <c r="XFB260" s="4"/>
-      <c r="XFC260" s="4"/>
-      <c r="XFD260" s="4"/>
+      <c r="I260" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA260" s="3"/>
+      <c r="XFB260" s="3"/>
+      <c r="XFC260" s="3"/>
+      <c r="XFD260" s="3"/>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" s="3" t="s">
         <v>624</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -12154,7 +12150,7 @@
       <c r="A262" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -12186,7 +12182,7 @@
       <c r="A263" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" s="3" t="s">
         <v>629</v>
       </c>
       <c r="C263" s="1" t="s">
@@ -12218,7 +12214,7 @@
       <c r="A264" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" s="3" t="s">
         <v>631</v>
       </c>
       <c r="C264" s="1" t="s">
@@ -12250,7 +12246,7 @@
       <c r="A265" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" s="3" t="s">
         <v>634</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -12282,7 +12278,7 @@
       <c r="A266" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" s="3" t="s">
         <v>636</v>
       </c>
       <c r="C266" s="1" t="s">
@@ -12310,509 +12306,509 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="4" t="s">
+    <row r="267" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C267" s="4" t="s">
+      <c r="C267" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D267" s="4" t="n">
+      <c r="D267" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="E267" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F267" s="4" t="s">
+      <c r="E267" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="G267" s="4" t="n">
+      <c r="G267" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="H267" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J267" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA267" s="4"/>
-      <c r="XFB267" s="4"/>
-      <c r="XFC267" s="4"/>
-      <c r="XFD267" s="4"/>
-    </row>
-    <row r="268" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="4" t="s">
+      <c r="H267" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA267" s="3"/>
+      <c r="XFB267" s="3"/>
+      <c r="XFC267" s="3"/>
+      <c r="XFD267" s="3"/>
+    </row>
+    <row r="268" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C268" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D268" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E268" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F268" s="4" t="s">
+      <c r="D268" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E268" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F268" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="G268" s="4" t="n">
+      <c r="G268" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="H268" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J268" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA268" s="4"/>
-      <c r="XFB268" s="4"/>
-      <c r="XFC268" s="4"/>
-      <c r="XFD268" s="4"/>
-    </row>
-    <row r="269" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="4" t="s">
+      <c r="H268" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA268" s="3"/>
+      <c r="XFB268" s="3"/>
+      <c r="XFC268" s="3"/>
+      <c r="XFD268" s="3"/>
+    </row>
+    <row r="269" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C269" s="4" t="s">
+      <c r="C269" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D269" s="4" t="n">
+      <c r="D269" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E269" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F269" s="4" t="s">
+      <c r="E269" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F269" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="G269" s="4" t="n">
+      <c r="G269" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H269" s="4" t="n">
+      <c r="H269" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I269" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J269" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA269" s="4"/>
-      <c r="XFB269" s="4"/>
-      <c r="XFC269" s="4"/>
-      <c r="XFD269" s="4"/>
-    </row>
-    <row r="270" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="4" t="s">
+      <c r="I269" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA269" s="3"/>
+      <c r="XFB269" s="3"/>
+      <c r="XFC269" s="3"/>
+      <c r="XFD269" s="3"/>
+    </row>
+    <row r="270" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="C270" s="4" t="s">
+      <c r="C270" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D270" s="4" t="n">
+      <c r="D270" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E270" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F270" s="4" t="s">
+      <c r="E270" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F270" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="G270" s="4" t="n">
+      <c r="G270" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H270" s="4" t="n">
+      <c r="H270" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I270" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J270" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA270" s="4"/>
-      <c r="XFB270" s="4"/>
-      <c r="XFC270" s="4"/>
-      <c r="XFD270" s="4"/>
-    </row>
-    <row r="271" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="4" t="s">
+      <c r="I270" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA270" s="3"/>
+      <c r="XFB270" s="3"/>
+      <c r="XFC270" s="3"/>
+      <c r="XFD270" s="3"/>
+    </row>
+    <row r="271" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="C271" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D271" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E271" s="4" t="n">
+      <c r="D271" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E271" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F271" s="4" t="s">
+      <c r="F271" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="G271" s="4" t="n">
+      <c r="G271" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H271" s="4" t="n">
+      <c r="H271" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I271" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J271" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA271" s="4"/>
-      <c r="XFB271" s="4"/>
-      <c r="XFC271" s="4"/>
-      <c r="XFD271" s="4"/>
-    </row>
-    <row r="272" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="4" t="s">
+      <c r="I271" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA271" s="3"/>
+      <c r="XFB271" s="3"/>
+      <c r="XFC271" s="3"/>
+      <c r="XFD271" s="3"/>
+    </row>
+    <row r="272" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="C272" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D272" s="4" t="n">
+      <c r="D272" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E272" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F272" s="4" t="s">
+      <c r="E272" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="G272" s="4" t="n">
+      <c r="G272" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H272" s="4" t="n">
+      <c r="H272" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I272" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J272" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA272" s="4"/>
-      <c r="XFB272" s="4"/>
-      <c r="XFC272" s="4"/>
-      <c r="XFD272" s="4"/>
-    </row>
-    <row r="273" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="4" t="s">
+      <c r="I272" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA272" s="3"/>
+      <c r="XFB272" s="3"/>
+      <c r="XFC272" s="3"/>
+      <c r="XFD272" s="3"/>
+    </row>
+    <row r="273" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="C273" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D273" s="4" t="n">
+      <c r="D273" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E273" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F273" s="4" t="s">
+      <c r="E273" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F273" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="G273" s="4" t="n">
+      <c r="G273" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H273" s="4" t="n">
+      <c r="H273" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I273" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J273" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA273" s="4"/>
-      <c r="XFB273" s="4"/>
-      <c r="XFC273" s="4"/>
-      <c r="XFD273" s="4"/>
-    </row>
-    <row r="274" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="4" t="s">
+      <c r="I273" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA273" s="3"/>
+      <c r="XFB273" s="3"/>
+      <c r="XFC273" s="3"/>
+      <c r="XFD273" s="3"/>
+    </row>
+    <row r="274" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="C274" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D274" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E274" s="4" t="n">
+      <c r="D274" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F274" s="4" t="s">
+      <c r="F274" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="G274" s="4" t="n">
+      <c r="G274" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H274" s="4" t="n">
+      <c r="H274" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I274" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J274" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA274" s="4"/>
-      <c r="XFB274" s="4"/>
-      <c r="XFC274" s="4"/>
-      <c r="XFD274" s="4"/>
-    </row>
-    <row r="275" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="4" t="s">
+      <c r="I274" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA274" s="3"/>
+      <c r="XFB274" s="3"/>
+      <c r="XFC274" s="3"/>
+      <c r="XFD274" s="3"/>
+    </row>
+    <row r="275" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="B275" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C275" s="4" t="s">
+      <c r="C275" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D275" s="4" t="n">
+      <c r="D275" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="E275" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F275" s="4" t="s">
+      <c r="E275" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F275" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="G275" s="4" t="n">
+      <c r="G275" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H275" s="4" t="n">
+      <c r="H275" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I275" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J275" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA275" s="4"/>
-      <c r="XFB275" s="4"/>
-      <c r="XFC275" s="4"/>
-      <c r="XFD275" s="4"/>
-    </row>
-    <row r="276" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="4" t="s">
+      <c r="I275" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA275" s="3"/>
+      <c r="XFB275" s="3"/>
+      <c r="XFC275" s="3"/>
+      <c r="XFD275" s="3"/>
+    </row>
+    <row r="276" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C276" s="4" t="s">
+      <c r="C276" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D276" s="4" t="n">
+      <c r="D276" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E276" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F276" s="4" t="s">
+      <c r="E276" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F276" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="G276" s="4" t="n">
+      <c r="G276" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H276" s="4" t="n">
+      <c r="H276" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I276" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J276" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA276" s="4"/>
-      <c r="XFB276" s="4"/>
-      <c r="XFC276" s="4"/>
-      <c r="XFD276" s="4"/>
-    </row>
-    <row r="277" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="4" t="s">
+      <c r="I276" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA276" s="3"/>
+      <c r="XFB276" s="3"/>
+      <c r="XFC276" s="3"/>
+      <c r="XFD276" s="3"/>
+    </row>
+    <row r="277" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B277" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="C277" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D277" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E277" s="4" t="n">
+      <c r="D277" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E277" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F277" s="4" t="s">
+      <c r="F277" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="G277" s="4" t="n">
+      <c r="G277" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H277" s="4" t="n">
+      <c r="H277" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I277" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J277" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA277" s="4"/>
-      <c r="XFB277" s="4"/>
-      <c r="XFC277" s="4"/>
-      <c r="XFD277" s="4"/>
-    </row>
-    <row r="278" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="4" t="s">
+      <c r="I277" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA277" s="3"/>
+      <c r="XFB277" s="3"/>
+      <c r="XFC277" s="3"/>
+      <c r="XFD277" s="3"/>
+    </row>
+    <row r="278" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B278" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="C278" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D278" s="4" t="n">
+      <c r="D278" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="E278" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F278" s="4" t="s">
+      <c r="E278" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="G278" s="4" t="n">
+      <c r="G278" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H278" s="4" t="n">
+      <c r="H278" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I278" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J278" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA278" s="4"/>
-      <c r="XFB278" s="4"/>
-      <c r="XFC278" s="4"/>
-      <c r="XFD278" s="4"/>
-    </row>
-    <row r="279" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="4" t="s">
+      <c r="I278" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA278" s="3"/>
+      <c r="XFB278" s="3"/>
+      <c r="XFC278" s="3"/>
+      <c r="XFD278" s="3"/>
+    </row>
+    <row r="279" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C279" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D279" s="4" t="n">
+      <c r="D279" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E279" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F279" s="4" t="s">
+      <c r="E279" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F279" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="G279" s="4" t="n">
+      <c r="G279" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H279" s="4" t="n">
+      <c r="H279" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I279" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J279" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA279" s="4"/>
-      <c r="XFB279" s="4"/>
-      <c r="XFC279" s="4"/>
-      <c r="XFD279" s="4"/>
-    </row>
-    <row r="280" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="4" t="s">
+      <c r="I279" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA279" s="3"/>
+      <c r="XFB279" s="3"/>
+      <c r="XFC279" s="3"/>
+      <c r="XFD279" s="3"/>
+    </row>
+    <row r="280" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="B280" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="C280" s="4" t="s">
+      <c r="C280" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D280" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E280" s="4" t="n">
+      <c r="D280" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E280" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F280" s="4" t="s">
+      <c r="F280" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="G280" s="4" t="n">
+      <c r="G280" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H280" s="4" t="n">
+      <c r="H280" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I280" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J280" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA280" s="4"/>
-      <c r="XFB280" s="4"/>
-      <c r="XFC280" s="4"/>
-      <c r="XFD280" s="4"/>
+      <c r="I280" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA280" s="3"/>
+      <c r="XFB280" s="3"/>
+      <c r="XFC280" s="3"/>
+      <c r="XFD280" s="3"/>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
@@ -13394,221 +13390,221 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="4" t="s">
+    <row r="301" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B301" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="C301" s="4" t="s">
+      <c r="C301" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D301" s="4" t="n">
+      <c r="D301" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E301" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F301" s="5" t="s">
+      <c r="E301" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F301" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="G301" s="5" t="n">
+      <c r="G301" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H301" s="5" t="n">
+      <c r="H301" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I301" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J301" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA301" s="4"/>
-      <c r="XFB301" s="4"/>
-      <c r="XFC301" s="4"/>
-      <c r="XFD301" s="4"/>
-    </row>
-    <row r="302" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="4" t="s">
+      <c r="I301" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA301" s="3"/>
+      <c r="XFB301" s="3"/>
+      <c r="XFC301" s="3"/>
+      <c r="XFD301" s="3"/>
+    </row>
+    <row r="302" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="B302" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="C302" s="4" t="s">
+      <c r="C302" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D302" s="4" t="n">
+      <c r="D302" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E302" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F302" s="5" t="s">
+      <c r="E302" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F302" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="G302" s="5" t="n">
+      <c r="G302" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H302" s="5" t="n">
+      <c r="H302" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I302" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J302" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA302" s="4"/>
-      <c r="XFB302" s="4"/>
-      <c r="XFC302" s="4"/>
-      <c r="XFD302" s="4"/>
-    </row>
-    <row r="303" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="4" t="s">
+      <c r="I302" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J302" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA302" s="3"/>
+      <c r="XFB302" s="3"/>
+      <c r="XFC302" s="3"/>
+      <c r="XFD302" s="3"/>
+    </row>
+    <row r="303" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="B303" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C303" s="4" t="s">
+      <c r="C303" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D303" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E303" s="4" t="n">
+      <c r="D303" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E303" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F303" s="5" t="s">
+      <c r="F303" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="G303" s="5" t="n">
+      <c r="G303" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H303" s="5" t="n">
+      <c r="H303" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I303" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J303" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA303" s="4"/>
-      <c r="XFB303" s="4"/>
-      <c r="XFC303" s="4"/>
-      <c r="XFD303" s="4"/>
-    </row>
-    <row r="304" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="4" t="s">
+      <c r="I303" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J303" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA303" s="3"/>
+      <c r="XFB303" s="3"/>
+      <c r="XFC303" s="3"/>
+      <c r="XFD303" s="3"/>
+    </row>
+    <row r="304" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="B304" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="C304" s="4" t="s">
+      <c r="C304" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D304" s="4" t="n">
+      <c r="D304" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="E304" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F304" s="4" t="s">
+      <c r="E304" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F304" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="G304" s="4" t="n">
+      <c r="G304" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H304" s="4" t="n">
+      <c r="H304" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I304" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J304" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA304" s="4"/>
-      <c r="XFB304" s="4"/>
-      <c r="XFC304" s="4"/>
-      <c r="XFD304" s="4"/>
-    </row>
-    <row r="305" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="4" t="s">
+      <c r="I304" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J304" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA304" s="3"/>
+      <c r="XFB304" s="3"/>
+      <c r="XFC304" s="3"/>
+      <c r="XFD304" s="3"/>
+    </row>
+    <row r="305" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="B305" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="C305" s="4" t="s">
+      <c r="C305" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D305" s="4" t="n">
+      <c r="D305" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E305" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F305" s="4" t="s">
+      <c r="E305" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F305" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="G305" s="4" t="n">
+      <c r="G305" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H305" s="4" t="n">
+      <c r="H305" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I305" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J305" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA305" s="4"/>
-      <c r="XFB305" s="4"/>
-      <c r="XFC305" s="4"/>
-      <c r="XFD305" s="4"/>
-    </row>
-    <row r="306" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="4" t="s">
+      <c r="I305" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J305" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA305" s="3"/>
+      <c r="XFB305" s="3"/>
+      <c r="XFC305" s="3"/>
+      <c r="XFD305" s="3"/>
+    </row>
+    <row r="306" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="B306" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="C306" s="4" t="s">
+      <c r="C306" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D306" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E306" s="4" t="n">
+      <c r="D306" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E306" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F306" s="4" t="s">
+      <c r="F306" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="G306" s="4" t="n">
+      <c r="G306" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H306" s="4" t="n">
+      <c r="H306" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I306" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J306" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA306" s="4"/>
-      <c r="XFB306" s="4"/>
-      <c r="XFC306" s="4"/>
-      <c r="XFD306" s="4"/>
+      <c r="I306" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J306" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA306" s="3"/>
+      <c r="XFB306" s="3"/>
+      <c r="XFC306" s="3"/>
+      <c r="XFD306" s="3"/>
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
@@ -14364,113 +14360,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="4" t="s">
+    <row r="333" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="B333" s="4" t="s">
+      <c r="B333" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="C333" s="4" t="s">
+      <c r="C333" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D333" s="4" t="n">
+      <c r="D333" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E333" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F333" s="4" t="s">
+      <c r="E333" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F333" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="G333" s="4" t="n">
+      <c r="G333" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H333" s="4" t="n">
+      <c r="H333" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I333" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J333" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA333" s="4"/>
-      <c r="XFB333" s="4"/>
-      <c r="XFC333" s="4"/>
-      <c r="XFD333" s="4"/>
-    </row>
-    <row r="334" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="4" t="s">
+      <c r="I333" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J333" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA333" s="3"/>
+      <c r="XFB333" s="3"/>
+      <c r="XFC333" s="3"/>
+      <c r="XFD333" s="3"/>
+    </row>
+    <row r="334" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="B334" s="4" t="s">
+      <c r="B334" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="C334" s="4" t="s">
+      <c r="C334" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D334" s="4" t="n">
+      <c r="D334" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E334" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F334" s="4" t="s">
+      <c r="E334" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F334" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="G334" s="4" t="n">
+      <c r="G334" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H334" s="4" t="n">
+      <c r="H334" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I334" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J334" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA334" s="4"/>
-      <c r="XFB334" s="4"/>
-      <c r="XFC334" s="4"/>
-      <c r="XFD334" s="4"/>
-    </row>
-    <row r="335" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="4" t="s">
+      <c r="I334" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J334" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA334" s="3"/>
+      <c r="XFB334" s="3"/>
+      <c r="XFC334" s="3"/>
+      <c r="XFD334" s="3"/>
+    </row>
+    <row r="335" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="B335" s="4" t="s">
+      <c r="B335" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="C335" s="4" t="s">
+      <c r="C335" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D335" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E335" s="4" t="n">
+      <c r="D335" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E335" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F335" s="4" t="s">
+      <c r="F335" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="G335" s="4" t="n">
+      <c r="G335" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H335" s="4" t="n">
+      <c r="H335" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I335" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J335" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA335" s="4"/>
-      <c r="XFB335" s="4"/>
-      <c r="XFC335" s="4"/>
-      <c r="XFD335" s="4"/>
+      <c r="I335" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J335" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA335" s="3"/>
+      <c r="XFB335" s="3"/>
+      <c r="XFC335" s="3"/>
+      <c r="XFD335" s="3"/>
     </row>
     <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
@@ -14536,113 +14532,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="4" t="s">
+    <row r="338" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="B338" s="4" t="s">
+      <c r="B338" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="C338" s="4" t="s">
+      <c r="C338" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D338" s="4" t="n">
+      <c r="D338" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="E338" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F338" s="4" t="s">
+      <c r="E338" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F338" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="G338" s="4" t="n">
+      <c r="G338" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H338" s="4" t="n">
+      <c r="H338" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I338" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J338" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA338" s="4"/>
-      <c r="XFB338" s="4"/>
-      <c r="XFC338" s="4"/>
-      <c r="XFD338" s="4"/>
-    </row>
-    <row r="339" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="4" t="s">
+      <c r="I338" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J338" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA338" s="3"/>
+      <c r="XFB338" s="3"/>
+      <c r="XFC338" s="3"/>
+      <c r="XFD338" s="3"/>
+    </row>
+    <row r="339" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="B339" s="4" t="s">
+      <c r="B339" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="C339" s="4" t="s">
+      <c r="C339" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D339" s="4" t="n">
+      <c r="D339" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E339" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F339" s="4" t="s">
+      <c r="E339" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F339" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="G339" s="4" t="n">
+      <c r="G339" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H339" s="4" t="n">
+      <c r="H339" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I339" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J339" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA339" s="4"/>
-      <c r="XFB339" s="4"/>
-      <c r="XFC339" s="4"/>
-      <c r="XFD339" s="4"/>
-    </row>
-    <row r="340" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="4" t="s">
+      <c r="I339" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J339" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA339" s="3"/>
+      <c r="XFB339" s="3"/>
+      <c r="XFC339" s="3"/>
+      <c r="XFD339" s="3"/>
+    </row>
+    <row r="340" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="B340" s="4" t="s">
+      <c r="B340" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="C340" s="4" t="s">
+      <c r="C340" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D340" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E340" s="4" t="n">
+      <c r="D340" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E340" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F340" s="4" t="s">
+      <c r="F340" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="G340" s="4" t="n">
+      <c r="G340" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H340" s="4" t="n">
+      <c r="H340" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I340" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J340" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA340" s="4"/>
-      <c r="XFB340" s="4"/>
-      <c r="XFC340" s="4"/>
-      <c r="XFD340" s="4"/>
+      <c r="I340" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J340" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA340" s="3"/>
+      <c r="XFB340" s="3"/>
+      <c r="XFC340" s="3"/>
+      <c r="XFD340" s="3"/>
     </row>
     <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
@@ -14760,77 +14756,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="4" t="s">
+    <row r="345" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="B345" s="4" t="s">
+      <c r="B345" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="C345" s="4" t="s">
+      <c r="C345" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D345" s="4" t="n">
+      <c r="D345" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="E345" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F345" s="5" t="s">
+      <c r="E345" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F345" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="G345" s="5" t="n">
+      <c r="G345" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="H345" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J345" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA345" s="4"/>
-      <c r="XFB345" s="4"/>
-      <c r="XFC345" s="4"/>
-      <c r="XFD345" s="4"/>
-    </row>
-    <row r="346" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="4" t="s">
+      <c r="H345" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I345" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J345" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA345" s="3"/>
+      <c r="XFB345" s="3"/>
+      <c r="XFC345" s="3"/>
+      <c r="XFD345" s="3"/>
+    </row>
+    <row r="346" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="B346" s="4" t="s">
+      <c r="B346" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="C346" s="4" t="s">
+      <c r="C346" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D346" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E346" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F346" s="5" t="s">
+      <c r="D346" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E346" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F346" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="G346" s="5" t="n">
+      <c r="G346" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="H346" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J346" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA346" s="4"/>
-      <c r="XFB346" s="4"/>
-      <c r="XFC346" s="4"/>
-      <c r="XFD346" s="4"/>
+      <c r="H346" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I346" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J346" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA346" s="3"/>
+      <c r="XFB346" s="3"/>
+      <c r="XFC346" s="3"/>
+      <c r="XFD346" s="3"/>
     </row>
     <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
@@ -15296,83 +15292,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="4" t="s">
+    <row r="363" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="B363" s="4" t="s">
+      <c r="B363" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="C363" s="4" t="s">
+      <c r="C363" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D363" s="4" t="n">
+      <c r="D363" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="E363" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F363" s="5" t="s">
+      <c r="E363" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F363" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="G363" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H363" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J363" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA363" s="4"/>
-      <c r="XFB363" s="4"/>
-      <c r="XFC363" s="4"/>
-      <c r="XFD363" s="4"/>
-    </row>
-    <row r="364" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="4" t="s">
+      <c r="G363" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H363" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I363" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J363" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA363" s="3"/>
+      <c r="XFB363" s="3"/>
+      <c r="XFC363" s="3"/>
+      <c r="XFD363" s="3"/>
+    </row>
+    <row r="364" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="B364" s="4" t="s">
+      <c r="B364" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="C364" s="4" t="s">
+      <c r="C364" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D364" s="4" t="n">
+      <c r="D364" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="E364" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F364" s="5" t="s">
+      <c r="E364" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F364" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="G364" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H364" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J364" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA364" s="4"/>
-      <c r="XFB364" s="4"/>
-      <c r="XFC364" s="4"/>
-      <c r="XFD364" s="4"/>
+      <c r="G364" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H364" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I364" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J364" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA364" s="3"/>
+      <c r="XFB364" s="3"/>
+      <c r="XFC364" s="3"/>
+      <c r="XFD364" s="3"/>
     </row>
     <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B365" s="4" t="s">
+      <c r="B365" s="3" t="s">
         <v>847</v>
       </c>
       <c r="C365" s="1" t="s">
@@ -15404,7 +15400,7 @@
       <c r="A366" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B366" s="4" t="s">
+      <c r="B366" s="3" t="s">
         <v>850</v>
       </c>
       <c r="C366" s="1" t="s">
@@ -15896,113 +15892,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="4" t="s">
+    <row r="383" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="B383" s="4" t="s">
+      <c r="B383" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="C383" s="4" t="s">
+      <c r="C383" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D383" s="4" t="n">
+      <c r="D383" s="3" t="n">
         <v>240</v>
       </c>
-      <c r="E383" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F383" s="4" t="s">
+      <c r="E383" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F383" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="G383" s="4" t="n">
+      <c r="G383" s="3" t="n">
         <v>240</v>
       </c>
-      <c r="H383" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="I383" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J383" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA383" s="4"/>
-      <c r="XFB383" s="4"/>
-      <c r="XFC383" s="4"/>
-      <c r="XFD383" s="4"/>
-    </row>
-    <row r="384" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="4" t="s">
+      <c r="H383" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="I383" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J383" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA383" s="3"/>
+      <c r="XFB383" s="3"/>
+      <c r="XFC383" s="3"/>
+      <c r="XFD383" s="3"/>
+    </row>
+    <row r="384" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="B384" s="4" t="s">
+      <c r="B384" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="C384" s="4" t="s">
+      <c r="C384" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D384" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="E384" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F384" s="4" t="s">
+      <c r="D384" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="E384" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F384" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="G384" s="4" t="n">
+      <c r="G384" s="3" t="n">
         <v>240</v>
       </c>
-      <c r="H384" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="I384" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J384" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA384" s="4"/>
-      <c r="XFB384" s="4"/>
-      <c r="XFC384" s="4"/>
-      <c r="XFD384" s="4"/>
-    </row>
-    <row r="385" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="4" t="s">
+      <c r="H384" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="I384" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J384" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA384" s="3"/>
+      <c r="XFB384" s="3"/>
+      <c r="XFC384" s="3"/>
+      <c r="XFD384" s="3"/>
+    </row>
+    <row r="385" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="B385" s="4" t="s">
+      <c r="B385" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="C385" s="4" t="s">
+      <c r="C385" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="D385" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E385" s="4" t="n">
+      <c r="D385" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E385" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F385" s="4" t="s">
+      <c r="F385" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="G385" s="4" t="n">
+      <c r="G385" s="3" t="n">
         <v>240</v>
       </c>
-      <c r="H385" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="I385" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J385" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA385" s="4"/>
-      <c r="XFB385" s="4"/>
-      <c r="XFC385" s="4"/>
-      <c r="XFD385" s="4"/>
+      <c r="H385" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="I385" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J385" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA385" s="3"/>
+      <c r="XFB385" s="3"/>
+      <c r="XFC385" s="3"/>
+      <c r="XFD385" s="3"/>
     </row>
     <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
@@ -16506,221 +16502,221 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="4" t="s">
+    <row r="403" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="B403" s="4" t="s">
+      <c r="B403" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="C403" s="4" t="s">
+      <c r="C403" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D403" s="4" t="n">
+      <c r="D403" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="E403" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F403" s="5" t="s">
+      <c r="E403" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F403" s="4" t="s">
         <v>925</v>
       </c>
-      <c r="G403" s="5" t="n">
+      <c r="G403" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="H403" s="5" t="n">
+      <c r="H403" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="I403" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J403" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA403" s="4"/>
-      <c r="XFB403" s="4"/>
-      <c r="XFC403" s="4"/>
-      <c r="XFD403" s="4"/>
-    </row>
-    <row r="404" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="4" t="s">
+      <c r="I403" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J403" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA403" s="3"/>
+      <c r="XFB403" s="3"/>
+      <c r="XFC403" s="3"/>
+      <c r="XFD403" s="3"/>
+    </row>
+    <row r="404" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="B404" s="4" t="s">
+      <c r="B404" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="C404" s="4" t="s">
+      <c r="C404" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D404" s="4" t="n">
+      <c r="D404" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="E404" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F404" s="5" t="s">
+      <c r="E404" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F404" s="4" t="s">
         <v>925</v>
       </c>
-      <c r="G404" s="5" t="n">
+      <c r="G404" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="H404" s="5" t="n">
+      <c r="H404" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="I404" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J404" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA404" s="4"/>
-      <c r="XFB404" s="4"/>
-      <c r="XFC404" s="4"/>
-      <c r="XFD404" s="4"/>
-    </row>
-    <row r="405" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="4" t="s">
+      <c r="I404" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J404" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA404" s="3"/>
+      <c r="XFB404" s="3"/>
+      <c r="XFC404" s="3"/>
+      <c r="XFD404" s="3"/>
+    </row>
+    <row r="405" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="B405" s="4" t="s">
+      <c r="B405" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="C405" s="4" t="s">
+      <c r="C405" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="D405" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E405" s="4" t="n">
+      <c r="D405" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E405" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F405" s="5" t="s">
+      <c r="F405" s="4" t="s">
         <v>925</v>
       </c>
-      <c r="G405" s="5" t="n">
+      <c r="G405" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="H405" s="5" t="n">
+      <c r="H405" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="I405" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J405" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA405" s="4"/>
-      <c r="XFB405" s="4"/>
-      <c r="XFC405" s="4"/>
-      <c r="XFD405" s="4"/>
-    </row>
-    <row r="406" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="4" t="s">
+      <c r="I405" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J405" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA405" s="3"/>
+      <c r="XFB405" s="3"/>
+      <c r="XFC405" s="3"/>
+      <c r="XFD405" s="3"/>
+    </row>
+    <row r="406" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="B406" s="4" t="s">
+      <c r="B406" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="C406" s="4" t="s">
+      <c r="C406" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D406" s="4" t="n">
+      <c r="D406" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="E406" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F406" s="5" t="s">
+      <c r="E406" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F406" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="G406" s="5" t="n">
+      <c r="G406" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="H406" s="5" t="n">
+      <c r="H406" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I406" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J406" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA406" s="4"/>
-      <c r="XFB406" s="4"/>
-      <c r="XFC406" s="4"/>
-      <c r="XFD406" s="4"/>
-    </row>
-    <row r="407" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="4" t="s">
+      <c r="I406" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J406" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA406" s="3"/>
+      <c r="XFB406" s="3"/>
+      <c r="XFC406" s="3"/>
+      <c r="XFD406" s="3"/>
+    </row>
+    <row r="407" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="B407" s="4" t="s">
+      <c r="B407" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="C407" s="4" t="s">
+      <c r="C407" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D407" s="4" t="n">
+      <c r="D407" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E407" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F407" s="5" t="s">
+      <c r="E407" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F407" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="G407" s="5" t="n">
+      <c r="G407" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="H407" s="5" t="n">
+      <c r="H407" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I407" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J407" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA407" s="4"/>
-      <c r="XFB407" s="4"/>
-      <c r="XFC407" s="4"/>
-      <c r="XFD407" s="4"/>
-    </row>
-    <row r="408" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="4" t="s">
+      <c r="I407" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J407" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA407" s="3"/>
+      <c r="XFB407" s="3"/>
+      <c r="XFC407" s="3"/>
+      <c r="XFD407" s="3"/>
+    </row>
+    <row r="408" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="B408" s="4" t="s">
+      <c r="B408" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="C408" s="4" t="s">
+      <c r="C408" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D408" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E408" s="4" t="n">
+      <c r="D408" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E408" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F408" s="5" t="s">
+      <c r="F408" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="G408" s="5" t="n">
+      <c r="G408" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="H408" s="5" t="n">
+      <c r="H408" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I408" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J408" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA408" s="4"/>
-      <c r="XFB408" s="4"/>
-      <c r="XFC408" s="4"/>
-      <c r="XFD408" s="4"/>
+      <c r="I408" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J408" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA408" s="3"/>
+      <c r="XFB408" s="3"/>
+      <c r="XFC408" s="3"/>
+      <c r="XFD408" s="3"/>
     </row>
     <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
@@ -17302,113 +17298,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="4" t="s">
+    <row r="429" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="B429" s="4" t="s">
+      <c r="B429" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="C429" s="4" t="s">
+      <c r="C429" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D429" s="4" t="n">
+      <c r="D429" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="E429" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F429" s="5" t="s">
+      <c r="E429" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F429" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="G429" s="5" t="n">
+      <c r="G429" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H429" s="5" t="n">
+      <c r="H429" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I429" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J429" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA429" s="4"/>
-      <c r="XFB429" s="4"/>
-      <c r="XFC429" s="4"/>
-      <c r="XFD429" s="4"/>
-    </row>
-    <row r="430" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="4" t="s">
+      <c r="I429" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J429" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA429" s="3"/>
+      <c r="XFB429" s="3"/>
+      <c r="XFC429" s="3"/>
+      <c r="XFD429" s="3"/>
+    </row>
+    <row r="430" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="B430" s="4" t="s">
+      <c r="B430" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="C430" s="4" t="s">
+      <c r="C430" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D430" s="4" t="n">
+      <c r="D430" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E430" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F430" s="5" t="s">
+      <c r="E430" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F430" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="G430" s="5" t="n">
+      <c r="G430" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H430" s="5" t="n">
+      <c r="H430" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I430" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J430" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA430" s="4"/>
-      <c r="XFB430" s="4"/>
-      <c r="XFC430" s="4"/>
-      <c r="XFD430" s="4"/>
-    </row>
-    <row r="431" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="4" t="s">
+      <c r="I430" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J430" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA430" s="3"/>
+      <c r="XFB430" s="3"/>
+      <c r="XFC430" s="3"/>
+      <c r="XFD430" s="3"/>
+    </row>
+    <row r="431" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="B431" s="4" t="s">
+      <c r="B431" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="C431" s="4" t="s">
+      <c r="C431" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D431" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E431" s="4" t="n">
+      <c r="D431" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E431" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F431" s="5" t="s">
+      <c r="F431" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="G431" s="5" t="n">
+      <c r="G431" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H431" s="5" t="n">
+      <c r="H431" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I431" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J431" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA431" s="4"/>
-      <c r="XFB431" s="4"/>
-      <c r="XFC431" s="4"/>
-      <c r="XFD431" s="4"/>
+      <c r="I431" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J431" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA431" s="3"/>
+      <c r="XFB431" s="3"/>
+      <c r="XFC431" s="3"/>
+      <c r="XFD431" s="3"/>
     </row>
     <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
@@ -17497,149 +17493,149 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="4" t="s">
+    <row r="435" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="B435" s="4" t="s">
+      <c r="B435" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="C435" s="4" t="s">
+      <c r="C435" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D435" s="4" t="n">
+      <c r="D435" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="E435" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F435" s="5" t="s">
+      <c r="E435" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F435" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="G435" s="5" t="n">
+      <c r="G435" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="H435" s="5" t="n">
+      <c r="H435" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="I435" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J435" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA435" s="4"/>
-      <c r="XFB435" s="4"/>
-      <c r="XFC435" s="4"/>
-      <c r="XFD435" s="4"/>
-    </row>
-    <row r="436" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="4" t="s">
+      <c r="I435" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J435" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA435" s="3"/>
+      <c r="XFB435" s="3"/>
+      <c r="XFC435" s="3"/>
+      <c r="XFD435" s="3"/>
+    </row>
+    <row r="436" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="B436" s="4" t="s">
+      <c r="B436" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="C436" s="4" t="s">
+      <c r="C436" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D436" s="4" t="n">
+      <c r="D436" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="E436" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F436" s="5" t="s">
+      <c r="E436" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F436" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="G436" s="5" t="n">
+      <c r="G436" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="H436" s="5" t="n">
+      <c r="H436" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="I436" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J436" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA436" s="4"/>
-      <c r="XFB436" s="4"/>
-      <c r="XFC436" s="4"/>
-      <c r="XFD436" s="4"/>
-    </row>
-    <row r="437" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="4" t="s">
+      <c r="I436" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J436" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA436" s="3"/>
+      <c r="XFB436" s="3"/>
+      <c r="XFC436" s="3"/>
+      <c r="XFD436" s="3"/>
+    </row>
+    <row r="437" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="B437" s="4" t="s">
+      <c r="B437" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="C437" s="4" t="s">
+      <c r="C437" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D437" s="4" t="n">
+      <c r="D437" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="E437" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F437" s="5" t="s">
+      <c r="E437" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F437" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="G437" s="5" t="n">
+      <c r="G437" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="H437" s="5" t="n">
+      <c r="H437" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="I437" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J437" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA437" s="4"/>
-      <c r="XFB437" s="4"/>
-      <c r="XFC437" s="4"/>
-      <c r="XFD437" s="4"/>
-    </row>
-    <row r="438" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="4" t="s">
+      <c r="I437" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J437" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA437" s="3"/>
+      <c r="XFB437" s="3"/>
+      <c r="XFC437" s="3"/>
+      <c r="XFD437" s="3"/>
+    </row>
+    <row r="438" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="B438" s="4" t="s">
+      <c r="B438" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="C438" s="4" t="s">
+      <c r="C438" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D438" s="4" t="n">
+      <c r="D438" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="E438" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F438" s="5" t="s">
+      <c r="E438" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F438" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="G438" s="5" t="n">
+      <c r="G438" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="H438" s="5" t="n">
+      <c r="H438" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="I438" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J438" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA438" s="4"/>
-      <c r="XFB438" s="4"/>
-      <c r="XFC438" s="4"/>
-      <c r="XFD438" s="4"/>
+      <c r="I438" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J438" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA438" s="3"/>
+      <c r="XFB438" s="3"/>
+      <c r="XFC438" s="3"/>
+      <c r="XFD438" s="3"/>
     </row>
     <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
@@ -17699,113 +17695,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="4" t="s">
+    <row r="441" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="B441" s="4" t="s">
+      <c r="B441" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="C441" s="4" t="s">
+      <c r="C441" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="D441" s="4" t="n">
+      <c r="D441" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="E441" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F441" s="4" t="s">
+      <c r="E441" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F441" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="G441" s="4" t="n">
+      <c r="G441" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="H441" s="4" t="n">
+      <c r="H441" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I441" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J441" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA441" s="4"/>
-      <c r="XFB441" s="4"/>
-      <c r="XFC441" s="4"/>
-      <c r="XFD441" s="4"/>
-    </row>
-    <row r="442" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="4" t="s">
+      <c r="I441" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J441" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA441" s="3"/>
+      <c r="XFB441" s="3"/>
+      <c r="XFC441" s="3"/>
+      <c r="XFD441" s="3"/>
+    </row>
+    <row r="442" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="B442" s="4" t="s">
+      <c r="B442" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="C442" s="4" t="s">
+      <c r="C442" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D442" s="4" t="n">
+      <c r="D442" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E442" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F442" s="4" t="s">
+      <c r="E442" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F442" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="G442" s="4" t="n">
+      <c r="G442" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="H442" s="4" t="n">
+      <c r="H442" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I442" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J442" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA442" s="4"/>
-      <c r="XFB442" s="4"/>
-      <c r="XFC442" s="4"/>
-      <c r="XFD442" s="4"/>
-    </row>
-    <row r="443" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="4" t="s">
+      <c r="I442" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J442" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA442" s="3"/>
+      <c r="XFB442" s="3"/>
+      <c r="XFC442" s="3"/>
+      <c r="XFD442" s="3"/>
+    </row>
+    <row r="443" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="B443" s="4" t="s">
+      <c r="B443" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="C443" s="4" t="s">
+      <c r="C443" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D443" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E443" s="4" t="n">
+      <c r="D443" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E443" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F443" s="4" t="s">
+      <c r="F443" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="G443" s="4" t="n">
+      <c r="G443" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="H443" s="4" t="n">
+      <c r="H443" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I443" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J443" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA443" s="4"/>
-      <c r="XFB443" s="4"/>
-      <c r="XFC443" s="4"/>
-      <c r="XFD443" s="4"/>
+      <c r="I443" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J443" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA443" s="3"/>
+      <c r="XFB443" s="3"/>
+      <c r="XFC443" s="3"/>
+      <c r="XFD443" s="3"/>
     </row>
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
@@ -18039,113 +18035,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="4" t="s">
+    <row r="452" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="B452" s="4" t="s">
+      <c r="B452" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="C452" s="4" t="s">
+      <c r="C452" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D452" s="4" t="n">
+      <c r="D452" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="E452" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F452" s="5" t="s">
+      <c r="E452" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F452" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="G452" s="5" t="n">
+      <c r="G452" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="H452" s="5" t="n">
+      <c r="H452" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I452" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J452" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA452" s="4"/>
-      <c r="XFB452" s="4"/>
-      <c r="XFC452" s="4"/>
-      <c r="XFD452" s="4"/>
-    </row>
-    <row r="453" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="4" t="s">
+      <c r="I452" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J452" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA452" s="3"/>
+      <c r="XFB452" s="3"/>
+      <c r="XFC452" s="3"/>
+      <c r="XFD452" s="3"/>
+    </row>
+    <row r="453" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="B453" s="4" t="s">
+      <c r="B453" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="C453" s="4" t="s">
+      <c r="C453" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D453" s="4" t="n">
+      <c r="D453" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="E453" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F453" s="5" t="s">
+      <c r="E453" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F453" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="G453" s="5" t="n">
+      <c r="G453" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="H453" s="5" t="n">
+      <c r="H453" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I453" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J453" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA453" s="4"/>
-      <c r="XFB453" s="4"/>
-      <c r="XFC453" s="4"/>
-      <c r="XFD453" s="4"/>
-    </row>
-    <row r="454" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="4" t="s">
+      <c r="I453" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J453" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA453" s="3"/>
+      <c r="XFB453" s="3"/>
+      <c r="XFC453" s="3"/>
+      <c r="XFD453" s="3"/>
+    </row>
+    <row r="454" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="B454" s="4" t="s">
+      <c r="B454" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="C454" s="4" t="s">
+      <c r="C454" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D454" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E454" s="4" t="n">
+      <c r="D454" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E454" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F454" s="5" t="s">
+      <c r="F454" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="G454" s="5" t="n">
+      <c r="G454" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="H454" s="5" t="n">
+      <c r="H454" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I454" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J454" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA454" s="4"/>
-      <c r="XFB454" s="4"/>
-      <c r="XFC454" s="4"/>
-      <c r="XFD454" s="4"/>
+      <c r="I454" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J454" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA454" s="3"/>
+      <c r="XFB454" s="3"/>
+      <c r="XFC454" s="3"/>
+      <c r="XFD454" s="3"/>
     </row>
     <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
@@ -18524,401 +18520,401 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="4" t="s">
+    <row r="468" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="B468" s="4" t="s">
+      <c r="B468" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="C468" s="4" t="s">
+      <c r="C468" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D468" s="4" t="n">
+      <c r="D468" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="E468" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F468" s="5" t="s">
+      <c r="E468" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F468" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="G468" s="5" t="n">
+      <c r="G468" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H468" s="5" t="n">
+      <c r="H468" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I468" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J468" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA468" s="4"/>
-      <c r="XFB468" s="4"/>
-      <c r="XFC468" s="4"/>
-      <c r="XFD468" s="4"/>
-    </row>
-    <row r="469" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="4" t="s">
+      <c r="I468" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J468" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA468" s="3"/>
+      <c r="XFB468" s="3"/>
+      <c r="XFC468" s="3"/>
+      <c r="XFD468" s="3"/>
+    </row>
+    <row r="469" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="B469" s="4" t="s">
+      <c r="B469" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="C469" s="4" t="s">
+      <c r="C469" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D469" s="4" t="n">
+      <c r="D469" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E469" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F469" s="5" t="s">
+      <c r="E469" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F469" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="G469" s="5" t="n">
+      <c r="G469" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H469" s="5" t="n">
+      <c r="H469" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I469" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J469" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA469" s="4"/>
-      <c r="XFB469" s="4"/>
-      <c r="XFC469" s="4"/>
-      <c r="XFD469" s="4"/>
-    </row>
-    <row r="470" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="4" t="s">
+      <c r="I469" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J469" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA469" s="3"/>
+      <c r="XFB469" s="3"/>
+      <c r="XFC469" s="3"/>
+      <c r="XFD469" s="3"/>
+    </row>
+    <row r="470" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="B470" s="4" t="s">
+      <c r="B470" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="C470" s="4" t="s">
+      <c r="C470" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D470" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E470" s="4" t="n">
+      <c r="D470" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E470" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F470" s="5" t="s">
+      <c r="F470" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="G470" s="5" t="n">
+      <c r="G470" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H470" s="5" t="n">
+      <c r="H470" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I470" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J470" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA470" s="4"/>
-      <c r="XFB470" s="4"/>
-      <c r="XFC470" s="4"/>
-      <c r="XFD470" s="4"/>
-    </row>
-    <row r="471" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="4" t="s">
+      <c r="I470" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J470" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA470" s="3"/>
+      <c r="XFB470" s="3"/>
+      <c r="XFC470" s="3"/>
+      <c r="XFD470" s="3"/>
+    </row>
+    <row r="471" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="B471" s="4" t="s">
+      <c r="B471" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="C471" s="4" t="s">
+      <c r="C471" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D471" s="4" t="n">
+      <c r="D471" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="E471" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F471" s="5" t="s">
+      <c r="E471" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F471" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="G471" s="5" t="n">
+      <c r="G471" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H471" s="5" t="n">
+      <c r="H471" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I471" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J471" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA471" s="4"/>
-      <c r="XFB471" s="4"/>
-      <c r="XFC471" s="4"/>
-      <c r="XFD471" s="4"/>
-    </row>
-    <row r="472" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="4" t="s">
+      <c r="I471" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J471" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA471" s="3"/>
+      <c r="XFB471" s="3"/>
+      <c r="XFC471" s="3"/>
+      <c r="XFD471" s="3"/>
+    </row>
+    <row r="472" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="B472" s="4" t="s">
+      <c r="B472" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="C472" s="4" t="s">
+      <c r="C472" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D472" s="4" t="n">
+      <c r="D472" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E472" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F472" s="5" t="s">
+      <c r="E472" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F472" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="G472" s="5" t="n">
+      <c r="G472" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H472" s="5" t="n">
+      <c r="H472" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I472" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J472" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA472" s="4"/>
-      <c r="XFB472" s="4"/>
-      <c r="XFC472" s="4"/>
-      <c r="XFD472" s="4"/>
-    </row>
-    <row r="473" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="4" t="s">
+      <c r="I472" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J472" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA472" s="3"/>
+      <c r="XFB472" s="3"/>
+      <c r="XFC472" s="3"/>
+      <c r="XFD472" s="3"/>
+    </row>
+    <row r="473" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="B473" s="4" t="s">
+      <c r="B473" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="C473" s="4" t="s">
+      <c r="C473" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D473" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E473" s="4" t="n">
+      <c r="D473" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E473" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F473" s="5" t="s">
+      <c r="F473" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="G473" s="5" t="n">
+      <c r="G473" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H473" s="5" t="n">
+      <c r="H473" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I473" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J473" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA473" s="4"/>
-      <c r="XFB473" s="4"/>
-      <c r="XFC473" s="4"/>
-      <c r="XFD473" s="4"/>
-    </row>
-    <row r="474" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="4" t="s">
+      <c r="I473" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J473" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA473" s="3"/>
+      <c r="XFB473" s="3"/>
+      <c r="XFC473" s="3"/>
+      <c r="XFD473" s="3"/>
+    </row>
+    <row r="474" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="B474" s="4" t="s">
+      <c r="B474" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="C474" s="4" t="s">
+      <c r="C474" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D474" s="4" t="n">
+      <c r="D474" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="E474" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F474" s="5" t="s">
+      <c r="E474" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F474" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="G474" s="5" t="n">
+      <c r="G474" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H474" s="5" t="n">
+      <c r="H474" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I474" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J474" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA474" s="4"/>
-      <c r="XFB474" s="4"/>
-      <c r="XFC474" s="4"/>
-      <c r="XFD474" s="4"/>
-    </row>
-    <row r="475" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="4" t="s">
+      <c r="I474" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J474" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA474" s="3"/>
+      <c r="XFB474" s="3"/>
+      <c r="XFC474" s="3"/>
+      <c r="XFD474" s="3"/>
+    </row>
+    <row r="475" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="B475" s="4" t="s">
+      <c r="B475" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="C475" s="4" t="s">
+      <c r="C475" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D475" s="4" t="n">
+      <c r="D475" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E475" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F475" s="5" t="s">
+      <c r="E475" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F475" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="G475" s="5" t="n">
+      <c r="G475" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H475" s="5" t="n">
+      <c r="H475" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I475" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J475" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA475" s="4"/>
-      <c r="XFB475" s="4"/>
-      <c r="XFC475" s="4"/>
-      <c r="XFD475" s="4"/>
-    </row>
-    <row r="476" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="4" t="s">
+      <c r="I475" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J475" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA475" s="3"/>
+      <c r="XFB475" s="3"/>
+      <c r="XFC475" s="3"/>
+      <c r="XFD475" s="3"/>
+    </row>
+    <row r="476" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="B476" s="4" t="s">
+      <c r="B476" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="C476" s="4" t="s">
+      <c r="C476" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D476" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E476" s="4" t="n">
+      <c r="D476" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E476" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F476" s="5" t="s">
+      <c r="F476" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="G476" s="5" t="n">
+      <c r="G476" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H476" s="5" t="n">
+      <c r="H476" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I476" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J476" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA476" s="4"/>
-      <c r="XFB476" s="4"/>
-      <c r="XFC476" s="4"/>
-      <c r="XFD476" s="4"/>
-    </row>
-    <row r="477" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="4" t="s">
+      <c r="I476" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J476" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA476" s="3"/>
+      <c r="XFB476" s="3"/>
+      <c r="XFC476" s="3"/>
+      <c r="XFD476" s="3"/>
+    </row>
+    <row r="477" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="B477" s="4" t="s">
+      <c r="B477" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="C477" s="4" t="s">
+      <c r="C477" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D477" s="4" t="n">
+      <c r="D477" s="3" t="n">
         <v>240</v>
       </c>
-      <c r="E477" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F477" s="5" t="s">
+      <c r="E477" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F477" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="G477" s="5" t="n">
+      <c r="G477" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="H477" s="5" t="n">
+      <c r="H477" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="I477" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J477" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA477" s="4"/>
-      <c r="XFB477" s="4"/>
-      <c r="XFC477" s="4"/>
-      <c r="XFD477" s="4"/>
-    </row>
-    <row r="478" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="4" t="s">
+      <c r="I477" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J477" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA477" s="3"/>
+      <c r="XFB477" s="3"/>
+      <c r="XFC477" s="3"/>
+      <c r="XFD477" s="3"/>
+    </row>
+    <row r="478" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="B478" s="4" t="s">
+      <c r="B478" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="C478" s="4" t="s">
+      <c r="C478" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D478" s="4" t="n">
+      <c r="D478" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="E478" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F478" s="5" t="s">
+      <c r="E478" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F478" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="G478" s="5" t="n">
+      <c r="G478" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="H478" s="5" t="n">
+      <c r="H478" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="I478" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J478" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA478" s="4"/>
-      <c r="XFB478" s="4"/>
-      <c r="XFC478" s="4"/>
-      <c r="XFD478" s="4"/>
+      <c r="I478" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J478" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA478" s="3"/>
+      <c r="XFB478" s="3"/>
+      <c r="XFC478" s="3"/>
+      <c r="XFD478" s="3"/>
     </row>
     <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
@@ -18978,77 +18974,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="4" t="s">
+    <row r="481" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="B481" s="4" t="s">
+      <c r="B481" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="C481" s="4" t="s">
+      <c r="C481" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D481" s="4" t="n">
+      <c r="D481" s="3" t="n">
         <v>240</v>
       </c>
-      <c r="E481" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F481" s="5" t="s">
+      <c r="E481" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F481" s="4" t="s">
         <v>1092</v>
       </c>
-      <c r="G481" s="5" t="n">
+      <c r="G481" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="H481" s="5" t="n">
+      <c r="H481" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="I481" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J481" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA481" s="4"/>
-      <c r="XFB481" s="4"/>
-      <c r="XFC481" s="4"/>
-      <c r="XFD481" s="4"/>
-    </row>
-    <row r="482" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="4" t="s">
+      <c r="I481" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J481" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA481" s="3"/>
+      <c r="XFB481" s="3"/>
+      <c r="XFC481" s="3"/>
+      <c r="XFD481" s="3"/>
+    </row>
+    <row r="482" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="B482" s="4" t="s">
+      <c r="B482" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="C482" s="4" t="s">
+      <c r="C482" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D482" s="4" t="n">
+      <c r="D482" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="E482" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F482" s="5" t="s">
+      <c r="E482" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F482" s="4" t="s">
         <v>1092</v>
       </c>
-      <c r="G482" s="5" t="n">
+      <c r="G482" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="H482" s="5" t="n">
+      <c r="H482" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="I482" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J482" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA482" s="4"/>
-      <c r="XFB482" s="4"/>
-      <c r="XFC482" s="4"/>
-      <c r="XFD482" s="4"/>
+      <c r="I482" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J482" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA482" s="3"/>
+      <c r="XFB482" s="3"/>
+      <c r="XFC482" s="3"/>
+      <c r="XFD482" s="3"/>
     </row>
     <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
@@ -19108,257 +19104,257 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="4" t="s">
+    <row r="485" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="B485" s="4" t="s">
+      <c r="B485" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="C485" s="4" t="s">
+      <c r="C485" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D485" s="4" t="n">
+      <c r="D485" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="E485" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F485" s="5" t="s">
+      <c r="E485" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F485" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="G485" s="5" t="n">
+      <c r="G485" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="H485" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J485" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA485" s="4"/>
-      <c r="XFB485" s="4"/>
-      <c r="XFC485" s="4"/>
-      <c r="XFD485" s="4"/>
-    </row>
-    <row r="486" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="4" t="s">
+      <c r="H485" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I485" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J485" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA485" s="3"/>
+      <c r="XFB485" s="3"/>
+      <c r="XFC485" s="3"/>
+      <c r="XFD485" s="3"/>
+    </row>
+    <row r="486" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="B486" s="4" t="s">
+      <c r="B486" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="C486" s="4" t="s">
+      <c r="C486" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D486" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E486" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F486" s="5" t="s">
+      <c r="D486" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E486" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F486" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="G486" s="5" t="n">
+      <c r="G486" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="H486" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J486" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA486" s="4"/>
-      <c r="XFB486" s="4"/>
-      <c r="XFC486" s="4"/>
-      <c r="XFD486" s="4"/>
-    </row>
-    <row r="487" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="4" t="s">
+      <c r="H486" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I486" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J486" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA486" s="3"/>
+      <c r="XFB486" s="3"/>
+      <c r="XFC486" s="3"/>
+      <c r="XFD486" s="3"/>
+    </row>
+    <row r="487" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="B487" s="4" t="s">
+      <c r="B487" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="C487" s="4" t="s">
+      <c r="C487" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D487" s="4" t="n">
+      <c r="D487" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="E487" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F487" s="5" t="s">
+      <c r="E487" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F487" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="G487" s="5" t="n">
+      <c r="G487" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="H487" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J487" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA487" s="4"/>
-      <c r="XFB487" s="4"/>
-      <c r="XFC487" s="4"/>
-      <c r="XFD487" s="4"/>
-    </row>
-    <row r="488" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="4" t="s">
+      <c r="H487" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I487" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J487" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA487" s="3"/>
+      <c r="XFB487" s="3"/>
+      <c r="XFC487" s="3"/>
+      <c r="XFD487" s="3"/>
+    </row>
+    <row r="488" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="B488" s="4" t="s">
+      <c r="B488" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="C488" s="4" t="s">
+      <c r="C488" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D488" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E488" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F488" s="5" t="s">
+      <c r="D488" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E488" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F488" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="G488" s="5" t="n">
+      <c r="G488" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="H488" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J488" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA488" s="4"/>
-      <c r="XFB488" s="4"/>
-      <c r="XFC488" s="4"/>
-      <c r="XFD488" s="4"/>
-    </row>
-    <row r="489" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="4" t="s">
+      <c r="H488" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I488" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J488" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA488" s="3"/>
+      <c r="XFB488" s="3"/>
+      <c r="XFC488" s="3"/>
+      <c r="XFD488" s="3"/>
+    </row>
+    <row r="489" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="B489" s="4" t="s">
+      <c r="B489" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="C489" s="4" t="s">
+      <c r="C489" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D489" s="4" t="n">
+      <c r="D489" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="E489" s="4" t="n">
+      <c r="E489" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F489" s="5" t="s">
+      <c r="F489" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="G489" s="5" t="n">
+      <c r="G489" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="H489" s="5" t="n">
+      <c r="H489" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I489" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J489" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA489" s="4"/>
-      <c r="XFB489" s="4"/>
-      <c r="XFC489" s="4"/>
-      <c r="XFD489" s="4"/>
-    </row>
-    <row r="490" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="4" t="s">
+      <c r="I489" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J489" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA489" s="3"/>
+      <c r="XFB489" s="3"/>
+      <c r="XFC489" s="3"/>
+      <c r="XFD489" s="3"/>
+    </row>
+    <row r="490" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="B490" s="4" t="s">
+      <c r="B490" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="C490" s="4" t="s">
+      <c r="C490" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D490" s="4" t="n">
+      <c r="D490" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E490" s="4" t="n">
+      <c r="E490" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F490" s="5" t="s">
+      <c r="F490" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="G490" s="5" t="n">
+      <c r="G490" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="H490" s="5" t="n">
+      <c r="H490" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I490" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J490" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA490" s="4"/>
-      <c r="XFB490" s="4"/>
-      <c r="XFC490" s="4"/>
-      <c r="XFD490" s="4"/>
-    </row>
-    <row r="491" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="4" t="s">
+      <c r="I490" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J490" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA490" s="3"/>
+      <c r="XFB490" s="3"/>
+      <c r="XFC490" s="3"/>
+      <c r="XFD490" s="3"/>
+    </row>
+    <row r="491" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="B491" s="4" t="s">
+      <c r="B491" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="C491" s="4" t="s">
+      <c r="C491" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D491" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E491" s="4" t="n">
+      <c r="D491" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E491" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F491" s="5" t="s">
+      <c r="F491" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="G491" s="5" t="n">
+      <c r="G491" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="H491" s="5" t="n">
+      <c r="H491" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I491" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J491" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA491" s="4"/>
-      <c r="XFB491" s="4"/>
-      <c r="XFC491" s="4"/>
-      <c r="XFD491" s="4"/>
+      <c r="I491" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J491" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA491" s="3"/>
+      <c r="XFB491" s="3"/>
+      <c r="XFC491" s="3"/>
+      <c r="XFD491" s="3"/>
     </row>
     <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
@@ -19766,509 +19762,509 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="4" t="s">
+    <row r="506" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="B506" s="4" t="s">
+      <c r="B506" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C506" s="4" t="s">
+      <c r="C506" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D506" s="4" t="n">
+      <c r="D506" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="E506" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F506" s="5" t="s">
+      <c r="E506" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F506" s="4" t="s">
         <v>1146</v>
       </c>
-      <c r="G506" s="5" t="n">
+      <c r="G506" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="H506" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J506" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA506" s="4"/>
-      <c r="XFB506" s="4"/>
-      <c r="XFC506" s="4"/>
-      <c r="XFD506" s="4"/>
-    </row>
-    <row r="507" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="4" t="s">
+      <c r="H506" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I506" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J506" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA506" s="3"/>
+      <c r="XFB506" s="3"/>
+      <c r="XFC506" s="3"/>
+      <c r="XFD506" s="3"/>
+    </row>
+    <row r="507" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="B507" s="4" t="s">
+      <c r="B507" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="C507" s="4" t="s">
+      <c r="C507" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D507" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E507" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F507" s="5" t="s">
+      <c r="D507" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E507" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F507" s="4" t="s">
         <v>1146</v>
       </c>
-      <c r="G507" s="5" t="n">
+      <c r="G507" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="H507" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J507" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA507" s="4"/>
-      <c r="XFB507" s="4"/>
-      <c r="XFC507" s="4"/>
-      <c r="XFD507" s="4"/>
-    </row>
-    <row r="508" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="4" t="s">
+      <c r="H507" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I507" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J507" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA507" s="3"/>
+      <c r="XFB507" s="3"/>
+      <c r="XFC507" s="3"/>
+      <c r="XFD507" s="3"/>
+    </row>
+    <row r="508" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="B508" s="4" t="s">
+      <c r="B508" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="C508" s="4" t="s">
+      <c r="C508" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D508" s="4" t="n">
+      <c r="D508" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="E508" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F508" s="5" t="s">
+      <c r="E508" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F508" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="G508" s="5" t="n">
+      <c r="G508" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="H508" s="5" t="n">
+      <c r="H508" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I508" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J508" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA508" s="4"/>
-      <c r="XFB508" s="4"/>
-      <c r="XFC508" s="4"/>
-      <c r="XFD508" s="4"/>
-    </row>
-    <row r="509" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="4" t="s">
+      <c r="I508" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J508" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA508" s="3"/>
+      <c r="XFB508" s="3"/>
+      <c r="XFC508" s="3"/>
+      <c r="XFD508" s="3"/>
+    </row>
+    <row r="509" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="B509" s="4" t="s">
+      <c r="B509" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="C509" s="4" t="s">
+      <c r="C509" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D509" s="4" t="n">
+      <c r="D509" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E509" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F509" s="5" t="s">
+      <c r="E509" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F509" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="G509" s="5" t="n">
+      <c r="G509" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="H509" s="5" t="n">
+      <c r="H509" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I509" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J509" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA509" s="4"/>
-      <c r="XFB509" s="4"/>
-      <c r="XFC509" s="4"/>
-      <c r="XFD509" s="4"/>
-    </row>
-    <row r="510" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="4" t="s">
+      <c r="I509" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J509" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA509" s="3"/>
+      <c r="XFB509" s="3"/>
+      <c r="XFC509" s="3"/>
+      <c r="XFD509" s="3"/>
+    </row>
+    <row r="510" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="B510" s="4" t="s">
+      <c r="B510" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="C510" s="4" t="s">
+      <c r="C510" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D510" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E510" s="4" t="n">
+      <c r="D510" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E510" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F510" s="5" t="s">
+      <c r="F510" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="G510" s="5" t="n">
+      <c r="G510" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="H510" s="5" t="n">
+      <c r="H510" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I510" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J510" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA510" s="4"/>
-      <c r="XFB510" s="4"/>
-      <c r="XFC510" s="4"/>
-      <c r="XFD510" s="4"/>
-    </row>
-    <row r="511" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="4" t="s">
+      <c r="I510" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J510" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA510" s="3"/>
+      <c r="XFB510" s="3"/>
+      <c r="XFC510" s="3"/>
+      <c r="XFD510" s="3"/>
+    </row>
+    <row r="511" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="B511" s="4" t="s">
+      <c r="B511" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="C511" s="4" t="s">
+      <c r="C511" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D511" s="4" t="n">
+      <c r="D511" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="E511" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F511" s="5" t="s">
+      <c r="E511" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F511" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="G511" s="5" t="n">
+      <c r="G511" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="H511" s="5" t="n">
+      <c r="H511" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I511" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J511" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA511" s="4"/>
-      <c r="XFB511" s="4"/>
-      <c r="XFC511" s="4"/>
-      <c r="XFD511" s="4"/>
-    </row>
-    <row r="512" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="4" t="s">
+      <c r="I511" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J511" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA511" s="3"/>
+      <c r="XFB511" s="3"/>
+      <c r="XFC511" s="3"/>
+      <c r="XFD511" s="3"/>
+    </row>
+    <row r="512" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="B512" s="4" t="s">
+      <c r="B512" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="C512" s="4" t="s">
+      <c r="C512" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D512" s="4" t="n">
+      <c r="D512" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E512" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F512" s="5" t="s">
+      <c r="E512" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F512" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="G512" s="5" t="n">
+      <c r="G512" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="H512" s="5" t="n">
+      <c r="H512" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I512" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J512" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA512" s="4"/>
-      <c r="XFB512" s="4"/>
-      <c r="XFC512" s="4"/>
-      <c r="XFD512" s="4"/>
-    </row>
-    <row r="513" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="4" t="s">
+      <c r="I512" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J512" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA512" s="3"/>
+      <c r="XFB512" s="3"/>
+      <c r="XFC512" s="3"/>
+      <c r="XFD512" s="3"/>
+    </row>
+    <row r="513" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="B513" s="4" t="s">
+      <c r="B513" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="C513" s="4" t="s">
+      <c r="C513" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D513" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E513" s="4" t="n">
+      <c r="D513" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E513" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F513" s="5" t="s">
+      <c r="F513" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="G513" s="5" t="n">
+      <c r="G513" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="H513" s="5" t="n">
+      <c r="H513" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I513" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J513" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA513" s="4"/>
-      <c r="XFB513" s="4"/>
-      <c r="XFC513" s="4"/>
-      <c r="XFD513" s="4"/>
-    </row>
-    <row r="514" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="4" t="s">
+      <c r="I513" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J513" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA513" s="3"/>
+      <c r="XFB513" s="3"/>
+      <c r="XFC513" s="3"/>
+      <c r="XFD513" s="3"/>
+    </row>
+    <row r="514" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="B514" s="4" t="s">
+      <c r="B514" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="C514" s="4" t="s">
+      <c r="C514" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D514" s="4" t="n">
+      <c r="D514" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="E514" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F514" s="5" t="s">
+      <c r="E514" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F514" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="G514" s="5" t="n">
+      <c r="G514" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="H514" s="5" t="n">
+      <c r="H514" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I514" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J514" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA514" s="4"/>
-      <c r="XFB514" s="4"/>
-      <c r="XFC514" s="4"/>
-      <c r="XFD514" s="4"/>
-    </row>
-    <row r="515" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="4" t="s">
+      <c r="I514" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J514" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA514" s="3"/>
+      <c r="XFB514" s="3"/>
+      <c r="XFC514" s="3"/>
+      <c r="XFD514" s="3"/>
+    </row>
+    <row r="515" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="B515" s="4" t="s">
+      <c r="B515" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="C515" s="4" t="s">
+      <c r="C515" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D515" s="4" t="n">
+      <c r="D515" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="E515" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F515" s="5" t="s">
+      <c r="E515" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F515" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="G515" s="5" t="n">
+      <c r="G515" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="H515" s="5" t="n">
+      <c r="H515" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I515" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J515" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA515" s="4"/>
-      <c r="XFB515" s="4"/>
-      <c r="XFC515" s="4"/>
-      <c r="XFD515" s="4"/>
-    </row>
-    <row r="516" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="4" t="s">
+      <c r="I515" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J515" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA515" s="3"/>
+      <c r="XFB515" s="3"/>
+      <c r="XFC515" s="3"/>
+      <c r="XFD515" s="3"/>
+    </row>
+    <row r="516" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="B516" s="4" t="s">
+      <c r="B516" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="C516" s="4" t="s">
+      <c r="C516" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D516" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E516" s="4" t="n">
+      <c r="D516" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E516" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F516" s="5" t="s">
+      <c r="F516" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="G516" s="5" t="n">
+      <c r="G516" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="H516" s="5" t="n">
+      <c r="H516" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I516" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J516" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA516" s="4"/>
-      <c r="XFB516" s="4"/>
-      <c r="XFC516" s="4"/>
-      <c r="XFD516" s="4"/>
-    </row>
-    <row r="517" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="4" t="s">
+      <c r="I516" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J516" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA516" s="3"/>
+      <c r="XFB516" s="3"/>
+      <c r="XFC516" s="3"/>
+      <c r="XFD516" s="3"/>
+    </row>
+    <row r="517" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="B517" s="4" t="s">
+      <c r="B517" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="C517" s="4" t="s">
+      <c r="C517" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D517" s="4" t="n">
+      <c r="D517" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="E517" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F517" s="5" t="s">
+      <c r="E517" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F517" s="4" t="s">
         <v>1172</v>
       </c>
-      <c r="G517" s="5" t="n">
+      <c r="G517" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="H517" s="5" t="n">
+      <c r="H517" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I517" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J517" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA517" s="4"/>
-      <c r="XFB517" s="4"/>
-      <c r="XFC517" s="4"/>
-      <c r="XFD517" s="4"/>
-    </row>
-    <row r="518" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="4" t="s">
+      <c r="I517" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J517" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA517" s="3"/>
+      <c r="XFB517" s="3"/>
+      <c r="XFC517" s="3"/>
+      <c r="XFD517" s="3"/>
+    </row>
+    <row r="518" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="B518" s="4" t="s">
+      <c r="B518" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="C518" s="4" t="s">
+      <c r="C518" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D518" s="4" t="n">
+      <c r="D518" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="E518" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F518" s="5" t="s">
+      <c r="E518" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F518" s="4" t="s">
         <v>1172</v>
       </c>
-      <c r="G518" s="5" t="n">
+      <c r="G518" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="H518" s="5" t="n">
+      <c r="H518" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I518" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J518" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA518" s="4"/>
-      <c r="XFB518" s="4"/>
-      <c r="XFC518" s="4"/>
-      <c r="XFD518" s="4"/>
-    </row>
-    <row r="519" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="4" t="s">
+      <c r="I518" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J518" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA518" s="3"/>
+      <c r="XFB518" s="3"/>
+      <c r="XFC518" s="3"/>
+      <c r="XFD518" s="3"/>
+    </row>
+    <row r="519" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="B519" s="4" t="s">
+      <c r="B519" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="C519" s="4" t="s">
+      <c r="C519" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D519" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E519" s="4" t="n">
+      <c r="D519" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E519" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F519" s="5" t="s">
+      <c r="F519" s="4" t="s">
         <v>1172</v>
       </c>
-      <c r="G519" s="5" t="n">
+      <c r="G519" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="H519" s="5" t="n">
+      <c r="H519" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I519" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J519" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA519" s="4"/>
-      <c r="XFB519" s="4"/>
-      <c r="XFC519" s="4"/>
-      <c r="XFD519" s="4"/>
+      <c r="I519" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J519" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA519" s="3"/>
+      <c r="XFB519" s="3"/>
+      <c r="XFC519" s="3"/>
+      <c r="XFD519" s="3"/>
     </row>
     <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">

--- a/template/02.xlsx
+++ b/template/02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="1183">
   <si>
     <t xml:space="preserve">kode</t>
   </si>
@@ -1348,6 +1348,9 @@
     <t xml:space="preserve">TSC 330 ML K20</t>
   </si>
   <si>
+    <t xml:space="preserve">0707006</t>
+  </si>
+  <si>
     <t xml:space="preserve">BJTSC330201</t>
   </si>
   <si>
@@ -1373,9 +1376,6 @@
   </si>
   <si>
     <t xml:space="preserve">TSC 330 ML PROGRAM K20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0707006</t>
   </si>
   <si>
     <t xml:space="preserve">BJTSC330203</t>
@@ -3653,7 +3653,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3663,6 +3663,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3895,11 +3899,11 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E168" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
-      <selection pane="bottomRight" activeCell="G148" activeCellId="0" sqref="G148"/>
+      <selection pane="bottomLeft" activeCell="A168" activeCellId="0" sqref="A168"/>
+      <selection pane="bottomRight" activeCell="F179" activeCellId="0" sqref="F179:F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9533,6 +9537,9 @@
       <c r="E179" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F179" s="3" t="s">
+        <v>441</v>
+      </c>
       <c r="G179" s="1" t="n">
         <v>20</v>
       </c>
@@ -9548,10 +9555,10 @@
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>43</v>
@@ -9562,6 +9569,9 @@
       <c r="E180" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="F180" s="3" t="s">
+        <v>441</v>
+      </c>
       <c r="G180" s="1" t="n">
         <v>20</v>
       </c>
@@ -9577,10 +9587,10 @@
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>39</v>
@@ -9592,7 +9602,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G181" s="1" t="n">
         <v>24</v>
@@ -9609,10 +9619,10 @@
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>43</v>
@@ -9624,7 +9634,7 @@
         <v>2</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G182" s="1" t="n">
         <v>24</v>
@@ -9641,10 +9651,10 @@
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>39</v>
@@ -9656,7 +9666,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>20</v>
@@ -9688,7 +9698,7 @@
         <v>2</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G184" s="1" t="n">
         <v>20</v>
@@ -10284,329 +10294,329 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="3" t="s">
+    <row r="204" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D204" s="3" t="n">
+      <c r="D204" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E204" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F204" s="3" t="s">
+      <c r="E204" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="G204" s="3" t="n">
+      <c r="G204" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H204" s="3" t="n">
+      <c r="H204" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I204" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA204" s="3"/>
-      <c r="XFB204" s="3"/>
-      <c r="XFC204" s="3"/>
-      <c r="XFD204" s="3"/>
-    </row>
-    <row r="205" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="3" t="s">
+      <c r="I204" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA204" s="4"/>
+      <c r="XFB204" s="4"/>
+      <c r="XFC204" s="4"/>
+      <c r="XFD204" s="4"/>
+    </row>
+    <row r="205" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D205" s="3" t="n">
+      <c r="D205" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E205" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F205" s="3" t="s">
+      <c r="E205" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F205" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="G205" s="3" t="n">
+      <c r="G205" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H205" s="3" t="n">
+      <c r="H205" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I205" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J205" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA205" s="3"/>
-      <c r="XFB205" s="3"/>
-      <c r="XFC205" s="3"/>
-      <c r="XFD205" s="3"/>
-    </row>
-    <row r="206" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="3" t="s">
+      <c r="I205" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA205" s="4"/>
+      <c r="XFB205" s="4"/>
+      <c r="XFC205" s="4"/>
+      <c r="XFD205" s="4"/>
+    </row>
+    <row r="206" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D206" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E206" s="3" t="n">
+      <c r="D206" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F206" s="3" t="s">
+      <c r="F206" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="G206" s="3" t="n">
+      <c r="G206" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H206" s="3" t="n">
+      <c r="H206" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I206" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J206" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA206" s="3"/>
-      <c r="XFB206" s="3"/>
-      <c r="XFC206" s="3"/>
-      <c r="XFD206" s="3"/>
-    </row>
-    <row r="207" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="3" t="s">
+      <c r="I206" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA206" s="4"/>
+      <c r="XFB206" s="4"/>
+      <c r="XFC206" s="4"/>
+      <c r="XFD206" s="4"/>
+    </row>
+    <row r="207" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D207" s="3" t="n">
+      <c r="D207" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="E207" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F207" s="3" t="s">
+      <c r="E207" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F207" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="G207" s="3" t="n">
+      <c r="G207" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="H207" s="3" t="n">
+      <c r="H207" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I207" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J207" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA207" s="3"/>
-      <c r="XFB207" s="3"/>
-      <c r="XFC207" s="3"/>
-      <c r="XFD207" s="3"/>
-    </row>
-    <row r="208" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="3" t="s">
+      <c r="I207" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA207" s="4"/>
+      <c r="XFB207" s="4"/>
+      <c r="XFC207" s="4"/>
+      <c r="XFD207" s="4"/>
+    </row>
+    <row r="208" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D208" s="3" t="n">
+      <c r="D208" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F208" s="3" t="s">
+      <c r="E208" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F208" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="G208" s="3" t="n">
+      <c r="G208" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="H208" s="3" t="n">
+      <c r="H208" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I208" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J208" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA208" s="3"/>
-      <c r="XFB208" s="3"/>
-      <c r="XFC208" s="3"/>
-      <c r="XFD208" s="3"/>
-    </row>
-    <row r="209" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="3" t="s">
+      <c r="I208" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA208" s="4"/>
+      <c r="XFB208" s="4"/>
+      <c r="XFC208" s="4"/>
+      <c r="XFD208" s="4"/>
+    </row>
+    <row r="209" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D209" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E209" s="3" t="n">
+      <c r="D209" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E209" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F209" s="3" t="s">
+      <c r="F209" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="G209" s="3" t="n">
+      <c r="G209" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="H209" s="3" t="n">
+      <c r="H209" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I209" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J209" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA209" s="3"/>
-      <c r="XFB209" s="3"/>
-      <c r="XFC209" s="3"/>
-      <c r="XFD209" s="3"/>
-    </row>
-    <row r="210" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="3" t="s">
+      <c r="I209" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA209" s="4"/>
+      <c r="XFB209" s="4"/>
+      <c r="XFC209" s="4"/>
+      <c r="XFD209" s="4"/>
+    </row>
+    <row r="210" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D210" s="3" t="n">
+      <c r="D210" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="E210" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F210" s="3" t="s">
+      <c r="E210" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="G210" s="3" t="n">
+      <c r="G210" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="H210" s="3" t="n">
+      <c r="H210" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I210" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J210" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA210" s="3"/>
-      <c r="XFB210" s="3"/>
-      <c r="XFC210" s="3"/>
-      <c r="XFD210" s="3"/>
-    </row>
-    <row r="211" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="3" t="s">
+      <c r="I210" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA210" s="4"/>
+      <c r="XFB210" s="4"/>
+      <c r="XFC210" s="4"/>
+      <c r="XFD210" s="4"/>
+    </row>
+    <row r="211" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D211" s="3" t="n">
+      <c r="D211" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E211" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F211" s="3" t="s">
+      <c r="E211" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F211" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="G211" s="3" t="n">
+      <c r="G211" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="H211" s="3" t="n">
+      <c r="H211" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I211" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J211" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA211" s="3"/>
-      <c r="XFB211" s="3"/>
-      <c r="XFC211" s="3"/>
-      <c r="XFD211" s="3"/>
-    </row>
-    <row r="212" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="3" t="s">
+      <c r="I211" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA211" s="4"/>
+      <c r="XFB211" s="4"/>
+      <c r="XFC211" s="4"/>
+      <c r="XFD211" s="4"/>
+    </row>
+    <row r="212" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D212" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E212" s="3" t="n">
+      <c r="D212" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E212" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F212" s="3" t="s">
+      <c r="F212" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="G212" s="3" t="n">
+      <c r="G212" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="H212" s="3" t="n">
+      <c r="H212" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I212" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J212" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA212" s="3"/>
-      <c r="XFB212" s="3"/>
-      <c r="XFC212" s="3"/>
-      <c r="XFD212" s="3"/>
+      <c r="I212" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA212" s="4"/>
+      <c r="XFB212" s="4"/>
+      <c r="XFC212" s="4"/>
+      <c r="XFD212" s="4"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
@@ -10695,113 +10705,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="3" t="s">
+    <row r="216" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D216" s="3" t="n">
+      <c r="D216" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E216" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F216" s="4" t="s">
+      <c r="E216" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="G216" s="3" t="n">
+      <c r="G216" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H216" s="3" t="n">
+      <c r="H216" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I216" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J216" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA216" s="3"/>
-      <c r="XFB216" s="3"/>
-      <c r="XFC216" s="3"/>
-      <c r="XFD216" s="3"/>
-    </row>
-    <row r="217" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="3" t="s">
+      <c r="I216" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA216" s="4"/>
+      <c r="XFB216" s="4"/>
+      <c r="XFC216" s="4"/>
+      <c r="XFD216" s="4"/>
+    </row>
+    <row r="217" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D217" s="3" t="n">
+      <c r="D217" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E217" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F217" s="4" t="s">
+      <c r="E217" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F217" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="G217" s="3" t="n">
+      <c r="G217" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H217" s="3" t="n">
+      <c r="H217" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I217" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J217" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA217" s="3"/>
-      <c r="XFB217" s="3"/>
-      <c r="XFC217" s="3"/>
-      <c r="XFD217" s="3"/>
-    </row>
-    <row r="218" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="3" t="s">
+      <c r="I217" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA217" s="4"/>
+      <c r="XFB217" s="4"/>
+      <c r="XFC217" s="4"/>
+      <c r="XFD217" s="4"/>
+    </row>
+    <row r="218" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D218" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E218" s="3" t="n">
+      <c r="D218" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E218" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F218" s="4" t="s">
+      <c r="F218" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="G218" s="3" t="n">
+      <c r="G218" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H218" s="3" t="n">
+      <c r="H218" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I218" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J218" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA218" s="3"/>
-      <c r="XFB218" s="3"/>
-      <c r="XFC218" s="3"/>
-      <c r="XFD218" s="3"/>
+      <c r="I218" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA218" s="4"/>
+      <c r="XFB218" s="4"/>
+      <c r="XFC218" s="4"/>
+      <c r="XFD218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
@@ -10890,113 +10900,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="3" t="s">
+    <row r="222" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D222" s="3" t="n">
+      <c r="D222" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="E222" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F222" s="4" t="s">
+      <c r="E222" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="G222" s="4" t="n">
+      <c r="G222" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H222" s="4" t="n">
+      <c r="H222" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I222" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J222" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA222" s="3"/>
-      <c r="XFB222" s="3"/>
-      <c r="XFC222" s="3"/>
-      <c r="XFD222" s="3"/>
-    </row>
-    <row r="223" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="3" t="s">
+      <c r="I222" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA222" s="4"/>
+      <c r="XFB222" s="4"/>
+      <c r="XFC222" s="4"/>
+      <c r="XFD222" s="4"/>
+    </row>
+    <row r="223" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D223" s="3" t="n">
+      <c r="D223" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E223" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F223" s="4" t="s">
+      <c r="E223" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F223" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="G223" s="4" t="n">
+      <c r="G223" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H223" s="4" t="n">
+      <c r="H223" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I223" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J223" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA223" s="3"/>
-      <c r="XFB223" s="3"/>
-      <c r="XFC223" s="3"/>
-      <c r="XFD223" s="3"/>
-    </row>
-    <row r="224" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="3" t="s">
+      <c r="I223" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA223" s="4"/>
+      <c r="XFB223" s="4"/>
+      <c r="XFC223" s="4"/>
+      <c r="XFD223" s="4"/>
+    </row>
+    <row r="224" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D224" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E224" s="3" t="n">
+      <c r="D224" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E224" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F224" s="4" t="s">
+      <c r="F224" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="G224" s="4" t="n">
+      <c r="G224" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H224" s="4" t="n">
+      <c r="H224" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I224" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J224" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA224" s="3"/>
-      <c r="XFB224" s="3"/>
-      <c r="XFC224" s="3"/>
-      <c r="XFD224" s="3"/>
+      <c r="I224" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA224" s="4"/>
+      <c r="XFB224" s="4"/>
+      <c r="XFC224" s="4"/>
+      <c r="XFD224" s="4"/>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
@@ -11172,113 +11182,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="3" t="s">
+    <row r="231" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D231" s="3" t="n">
+      <c r="D231" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E231" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F231" s="3" t="s">
+      <c r="E231" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="G231" s="3" t="n">
+      <c r="G231" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H231" s="3" t="n">
+      <c r="H231" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I231" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J231" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA231" s="3"/>
-      <c r="XFB231" s="3"/>
-      <c r="XFC231" s="3"/>
-      <c r="XFD231" s="3"/>
-    </row>
-    <row r="232" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="3" t="s">
+      <c r="I231" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA231" s="4"/>
+      <c r="XFB231" s="4"/>
+      <c r="XFC231" s="4"/>
+      <c r="XFD231" s="4"/>
+    </row>
+    <row r="232" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D232" s="3" t="n">
+      <c r="D232" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E232" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F232" s="3" t="s">
+      <c r="E232" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F232" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="G232" s="3" t="n">
+      <c r="G232" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H232" s="3" t="n">
+      <c r="H232" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I232" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J232" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA232" s="3"/>
-      <c r="XFB232" s="3"/>
-      <c r="XFC232" s="3"/>
-      <c r="XFD232" s="3"/>
-    </row>
-    <row r="233" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="3" t="s">
+      <c r="I232" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA232" s="4"/>
+      <c r="XFB232" s="4"/>
+      <c r="XFC232" s="4"/>
+      <c r="XFD232" s="4"/>
+    </row>
+    <row r="233" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D233" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E233" s="3" t="n">
+      <c r="D233" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E233" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F233" s="3" t="s">
+      <c r="F233" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="G233" s="3" t="n">
+      <c r="G233" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H233" s="3" t="n">
+      <c r="H233" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I233" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J233" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA233" s="3"/>
-      <c r="XFB233" s="3"/>
-      <c r="XFC233" s="3"/>
-      <c r="XFD233" s="3"/>
+      <c r="I233" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA233" s="4"/>
+      <c r="XFB233" s="4"/>
+      <c r="XFC233" s="4"/>
+      <c r="XFD233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
@@ -11628,113 +11638,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="3" t="s">
+    <row r="246" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D246" s="3" t="n">
+      <c r="D246" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E246" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F246" s="3" t="s">
+      <c r="E246" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="G246" s="3" t="n">
+      <c r="G246" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H246" s="3" t="n">
+      <c r="H246" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I246" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J246" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA246" s="3"/>
-      <c r="XFB246" s="3"/>
-      <c r="XFC246" s="3"/>
-      <c r="XFD246" s="3"/>
-    </row>
-    <row r="247" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="3" t="s">
+      <c r="I246" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA246" s="4"/>
+      <c r="XFB246" s="4"/>
+      <c r="XFC246" s="4"/>
+      <c r="XFD246" s="4"/>
+    </row>
+    <row r="247" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D247" s="3" t="n">
+      <c r="D247" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E247" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F247" s="3" t="s">
+      <c r="E247" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F247" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="G247" s="3" t="n">
+      <c r="G247" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H247" s="3" t="n">
+      <c r="H247" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I247" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J247" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA247" s="3"/>
-      <c r="XFB247" s="3"/>
-      <c r="XFC247" s="3"/>
-      <c r="XFD247" s="3"/>
-    </row>
-    <row r="248" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="3" t="s">
+      <c r="I247" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA247" s="4"/>
+      <c r="XFB247" s="4"/>
+      <c r="XFC247" s="4"/>
+      <c r="XFD247" s="4"/>
+    </row>
+    <row r="248" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D248" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E248" s="3" t="n">
+      <c r="D248" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E248" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F248" s="3" t="s">
+      <c r="F248" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="G248" s="3" t="n">
+      <c r="G248" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H248" s="3" t="n">
+      <c r="H248" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I248" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J248" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA248" s="3"/>
-      <c r="XFB248" s="3"/>
-      <c r="XFC248" s="3"/>
-      <c r="XFD248" s="3"/>
+      <c r="I248" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA248" s="4"/>
+      <c r="XFB248" s="4"/>
+      <c r="XFC248" s="4"/>
+      <c r="XFD248" s="4"/>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
@@ -11914,7 +11924,7 @@
       <c r="A255" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="4" t="s">
         <v>610</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -11946,7 +11956,7 @@
       <c r="A256" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="4" t="s">
         <v>613</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -11978,7 +11988,7 @@
       <c r="A257" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="4" t="s">
         <v>615</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -12006,119 +12016,119 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="3" t="s">
+    <row r="258" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D258" s="3" t="n">
+      <c r="D258" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E258" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F258" s="3" t="s">
+      <c r="E258" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="G258" s="3" t="n">
+      <c r="G258" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H258" s="3" t="n">
+      <c r="H258" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I258" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J258" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA258" s="3"/>
-      <c r="XFB258" s="3"/>
-      <c r="XFC258" s="3"/>
-      <c r="XFD258" s="3"/>
-    </row>
-    <row r="259" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="3" t="s">
+      <c r="I258" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA258" s="4"/>
+      <c r="XFB258" s="4"/>
+      <c r="XFC258" s="4"/>
+      <c r="XFD258" s="4"/>
+    </row>
+    <row r="259" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D259" s="3" t="n">
+      <c r="D259" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E259" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F259" s="3" t="s">
+      <c r="E259" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F259" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="G259" s="3" t="n">
+      <c r="G259" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H259" s="3" t="n">
+      <c r="H259" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I259" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J259" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA259" s="3"/>
-      <c r="XFB259" s="3"/>
-      <c r="XFC259" s="3"/>
-      <c r="XFD259" s="3"/>
-    </row>
-    <row r="260" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="3" t="s">
+      <c r="I259" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA259" s="4"/>
+      <c r="XFB259" s="4"/>
+      <c r="XFC259" s="4"/>
+      <c r="XFD259" s="4"/>
+    </row>
+    <row r="260" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D260" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E260" s="3" t="n">
+      <c r="D260" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E260" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F260" s="3" t="s">
+      <c r="F260" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="G260" s="3" t="n">
+      <c r="G260" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H260" s="3" t="n">
+      <c r="H260" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I260" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J260" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA260" s="3"/>
-      <c r="XFB260" s="3"/>
-      <c r="XFC260" s="3"/>
-      <c r="XFD260" s="3"/>
+      <c r="I260" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA260" s="4"/>
+      <c r="XFB260" s="4"/>
+      <c r="XFC260" s="4"/>
+      <c r="XFD260" s="4"/>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="4" t="s">
         <v>624</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -12150,7 +12160,7 @@
       <c r="A262" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="4" t="s">
         <v>627</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -12182,7 +12192,7 @@
       <c r="A263" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="4" t="s">
         <v>629</v>
       </c>
       <c r="C263" s="1" t="s">
@@ -12214,7 +12224,7 @@
       <c r="A264" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="4" t="s">
         <v>631</v>
       </c>
       <c r="C264" s="1" t="s">
@@ -12246,7 +12256,7 @@
       <c r="A265" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="4" t="s">
         <v>634</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -12278,7 +12288,7 @@
       <c r="A266" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="4" t="s">
         <v>636</v>
       </c>
       <c r="C266" s="1" t="s">
@@ -12306,509 +12316,509 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="3" t="s">
+    <row r="267" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D267" s="3" t="n">
+      <c r="D267" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="E267" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F267" s="3" t="s">
+      <c r="E267" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="G267" s="3" t="n">
+      <c r="G267" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="H267" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J267" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA267" s="3"/>
-      <c r="XFB267" s="3"/>
-      <c r="XFC267" s="3"/>
-      <c r="XFD267" s="3"/>
-    </row>
-    <row r="268" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="3" t="s">
+      <c r="H267" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA267" s="4"/>
+      <c r="XFB267" s="4"/>
+      <c r="XFC267" s="4"/>
+      <c r="XFD267" s="4"/>
+    </row>
+    <row r="268" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D268" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E268" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F268" s="3" t="s">
+      <c r="D268" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E268" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F268" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="G268" s="3" t="n">
+      <c r="G268" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="H268" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J268" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA268" s="3"/>
-      <c r="XFB268" s="3"/>
-      <c r="XFC268" s="3"/>
-      <c r="XFD268" s="3"/>
-    </row>
-    <row r="269" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="3" t="s">
+      <c r="H268" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA268" s="4"/>
+      <c r="XFB268" s="4"/>
+      <c r="XFC268" s="4"/>
+      <c r="XFD268" s="4"/>
+    </row>
+    <row r="269" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D269" s="3" t="n">
+      <c r="D269" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E269" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F269" s="3" t="s">
+      <c r="E269" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F269" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="G269" s="3" t="n">
+      <c r="G269" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H269" s="3" t="n">
+      <c r="H269" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I269" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J269" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA269" s="3"/>
-      <c r="XFB269" s="3"/>
-      <c r="XFC269" s="3"/>
-      <c r="XFD269" s="3"/>
-    </row>
-    <row r="270" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="3" t="s">
+      <c r="I269" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA269" s="4"/>
+      <c r="XFB269" s="4"/>
+      <c r="XFC269" s="4"/>
+      <c r="XFD269" s="4"/>
+    </row>
+    <row r="270" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D270" s="3" t="n">
+      <c r="D270" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E270" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F270" s="3" t="s">
+      <c r="E270" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F270" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="G270" s="3" t="n">
+      <c r="G270" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H270" s="3" t="n">
+      <c r="H270" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I270" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J270" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA270" s="3"/>
-      <c r="XFB270" s="3"/>
-      <c r="XFC270" s="3"/>
-      <c r="XFD270" s="3"/>
-    </row>
-    <row r="271" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="3" t="s">
+      <c r="I270" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA270" s="4"/>
+      <c r="XFB270" s="4"/>
+      <c r="XFC270" s="4"/>
+      <c r="XFD270" s="4"/>
+    </row>
+    <row r="271" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D271" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E271" s="3" t="n">
+      <c r="D271" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E271" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F271" s="3" t="s">
+      <c r="F271" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="G271" s="3" t="n">
+      <c r="G271" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H271" s="3" t="n">
+      <c r="H271" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I271" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J271" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA271" s="3"/>
-      <c r="XFB271" s="3"/>
-      <c r="XFC271" s="3"/>
-      <c r="XFD271" s="3"/>
-    </row>
-    <row r="272" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="3" t="s">
+      <c r="I271" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA271" s="4"/>
+      <c r="XFB271" s="4"/>
+      <c r="XFC271" s="4"/>
+      <c r="XFD271" s="4"/>
+    </row>
+    <row r="272" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D272" s="3" t="n">
+      <c r="D272" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E272" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F272" s="3" t="s">
+      <c r="E272" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="G272" s="3" t="n">
+      <c r="G272" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H272" s="3" t="n">
+      <c r="H272" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I272" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J272" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA272" s="3"/>
-      <c r="XFB272" s="3"/>
-      <c r="XFC272" s="3"/>
-      <c r="XFD272" s="3"/>
-    </row>
-    <row r="273" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="3" t="s">
+      <c r="I272" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA272" s="4"/>
+      <c r="XFB272" s="4"/>
+      <c r="XFC272" s="4"/>
+      <c r="XFD272" s="4"/>
+    </row>
+    <row r="273" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D273" s="3" t="n">
+      <c r="D273" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E273" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F273" s="3" t="s">
+      <c r="E273" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F273" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="G273" s="3" t="n">
+      <c r="G273" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H273" s="3" t="n">
+      <c r="H273" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I273" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J273" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA273" s="3"/>
-      <c r="XFB273" s="3"/>
-      <c r="XFC273" s="3"/>
-      <c r="XFD273" s="3"/>
-    </row>
-    <row r="274" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="3" t="s">
+      <c r="I273" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA273" s="4"/>
+      <c r="XFB273" s="4"/>
+      <c r="XFC273" s="4"/>
+      <c r="XFD273" s="4"/>
+    </row>
+    <row r="274" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D274" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E274" s="3" t="n">
+      <c r="D274" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F274" s="3" t="s">
+      <c r="F274" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="G274" s="3" t="n">
+      <c r="G274" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H274" s="3" t="n">
+      <c r="H274" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I274" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J274" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA274" s="3"/>
-      <c r="XFB274" s="3"/>
-      <c r="XFC274" s="3"/>
-      <c r="XFD274" s="3"/>
-    </row>
-    <row r="275" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="3" t="s">
+      <c r="I274" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA274" s="4"/>
+      <c r="XFB274" s="4"/>
+      <c r="XFC274" s="4"/>
+      <c r="XFD274" s="4"/>
+    </row>
+    <row r="275" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D275" s="3" t="n">
+      <c r="D275" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="E275" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F275" s="3" t="s">
+      <c r="E275" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F275" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G275" s="3" t="n">
+      <c r="G275" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H275" s="3" t="n">
+      <c r="H275" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I275" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J275" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA275" s="3"/>
-      <c r="XFB275" s="3"/>
-      <c r="XFC275" s="3"/>
-      <c r="XFD275" s="3"/>
-    </row>
-    <row r="276" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="3" t="s">
+      <c r="I275" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA275" s="4"/>
+      <c r="XFB275" s="4"/>
+      <c r="XFC275" s="4"/>
+      <c r="XFD275" s="4"/>
+    </row>
+    <row r="276" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D276" s="3" t="n">
+      <c r="D276" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E276" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F276" s="3" t="s">
+      <c r="E276" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F276" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G276" s="3" t="n">
+      <c r="G276" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H276" s="3" t="n">
+      <c r="H276" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I276" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J276" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA276" s="3"/>
-      <c r="XFB276" s="3"/>
-      <c r="XFC276" s="3"/>
-      <c r="XFD276" s="3"/>
-    </row>
-    <row r="277" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="3" t="s">
+      <c r="I276" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA276" s="4"/>
+      <c r="XFB276" s="4"/>
+      <c r="XFC276" s="4"/>
+      <c r="XFD276" s="4"/>
+    </row>
+    <row r="277" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D277" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E277" s="3" t="n">
+      <c r="D277" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E277" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F277" s="3" t="s">
+      <c r="F277" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G277" s="3" t="n">
+      <c r="G277" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H277" s="3" t="n">
+      <c r="H277" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I277" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J277" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA277" s="3"/>
-      <c r="XFB277" s="3"/>
-      <c r="XFC277" s="3"/>
-      <c r="XFD277" s="3"/>
-    </row>
-    <row r="278" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="3" t="s">
+      <c r="I277" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA277" s="4"/>
+      <c r="XFB277" s="4"/>
+      <c r="XFC277" s="4"/>
+      <c r="XFD277" s="4"/>
+    </row>
+    <row r="278" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D278" s="3" t="n">
+      <c r="D278" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="E278" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F278" s="3" t="s">
+      <c r="E278" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="G278" s="3" t="n">
+      <c r="G278" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H278" s="3" t="n">
+      <c r="H278" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I278" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J278" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA278" s="3"/>
-      <c r="XFB278" s="3"/>
-      <c r="XFC278" s="3"/>
-      <c r="XFD278" s="3"/>
-    </row>
-    <row r="279" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="3" t="s">
+      <c r="I278" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA278" s="4"/>
+      <c r="XFB278" s="4"/>
+      <c r="XFC278" s="4"/>
+      <c r="XFD278" s="4"/>
+    </row>
+    <row r="279" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="C279" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D279" s="3" t="n">
+      <c r="D279" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E279" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F279" s="3" t="s">
+      <c r="E279" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F279" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="G279" s="3" t="n">
+      <c r="G279" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H279" s="3" t="n">
+      <c r="H279" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I279" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J279" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA279" s="3"/>
-      <c r="XFB279" s="3"/>
-      <c r="XFC279" s="3"/>
-      <c r="XFD279" s="3"/>
-    </row>
-    <row r="280" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="3" t="s">
+      <c r="I279" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA279" s="4"/>
+      <c r="XFB279" s="4"/>
+      <c r="XFC279" s="4"/>
+      <c r="XFD279" s="4"/>
+    </row>
+    <row r="280" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D280" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E280" s="3" t="n">
+      <c r="D280" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E280" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F280" s="3" t="s">
+      <c r="F280" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="G280" s="3" t="n">
+      <c r="G280" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H280" s="3" t="n">
+      <c r="H280" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I280" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J280" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA280" s="3"/>
-      <c r="XFB280" s="3"/>
-      <c r="XFC280" s="3"/>
-      <c r="XFD280" s="3"/>
+      <c r="I280" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA280" s="4"/>
+      <c r="XFB280" s="4"/>
+      <c r="XFC280" s="4"/>
+      <c r="XFD280" s="4"/>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
@@ -13390,221 +13400,221 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="3" t="s">
+    <row r="301" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C301" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D301" s="3" t="n">
+      <c r="D301" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E301" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F301" s="4" t="s">
+      <c r="E301" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F301" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="G301" s="4" t="n">
+      <c r="G301" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="H301" s="4" t="n">
+      <c r="H301" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I301" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J301" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA301" s="3"/>
-      <c r="XFB301" s="3"/>
-      <c r="XFC301" s="3"/>
-      <c r="XFD301" s="3"/>
-    </row>
-    <row r="302" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="3" t="s">
+      <c r="I301" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA301" s="4"/>
+      <c r="XFB301" s="4"/>
+      <c r="XFC301" s="4"/>
+      <c r="XFD301" s="4"/>
+    </row>
+    <row r="302" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C302" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D302" s="3" t="n">
+      <c r="D302" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E302" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F302" s="4" t="s">
+      <c r="E302" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F302" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="G302" s="4" t="n">
+      <c r="G302" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="H302" s="4" t="n">
+      <c r="H302" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I302" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J302" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA302" s="3"/>
-      <c r="XFB302" s="3"/>
-      <c r="XFC302" s="3"/>
-      <c r="XFD302" s="3"/>
-    </row>
-    <row r="303" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="3" t="s">
+      <c r="I302" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J302" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA302" s="4"/>
+      <c r="XFB302" s="4"/>
+      <c r="XFC302" s="4"/>
+      <c r="XFD302" s="4"/>
+    </row>
+    <row r="303" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C303" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D303" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E303" s="3" t="n">
+      <c r="D303" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E303" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F303" s="4" t="s">
+      <c r="F303" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="G303" s="4" t="n">
+      <c r="G303" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="H303" s="4" t="n">
+      <c r="H303" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I303" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J303" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA303" s="3"/>
-      <c r="XFB303" s="3"/>
-      <c r="XFC303" s="3"/>
-      <c r="XFD303" s="3"/>
-    </row>
-    <row r="304" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="3" t="s">
+      <c r="I303" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J303" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA303" s="4"/>
+      <c r="XFB303" s="4"/>
+      <c r="XFC303" s="4"/>
+      <c r="XFD303" s="4"/>
+    </row>
+    <row r="304" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D304" s="3" t="n">
+      <c r="D304" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="E304" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F304" s="3" t="s">
+      <c r="E304" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F304" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="G304" s="3" t="n">
+      <c r="G304" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H304" s="3" t="n">
+      <c r="H304" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I304" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J304" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA304" s="3"/>
-      <c r="XFB304" s="3"/>
-      <c r="XFC304" s="3"/>
-      <c r="XFD304" s="3"/>
-    </row>
-    <row r="305" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="3" t="s">
+      <c r="I304" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J304" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA304" s="4"/>
+      <c r="XFB304" s="4"/>
+      <c r="XFC304" s="4"/>
+      <c r="XFD304" s="4"/>
+    </row>
+    <row r="305" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C305" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D305" s="3" t="n">
+      <c r="D305" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E305" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F305" s="3" t="s">
+      <c r="E305" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F305" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="G305" s="3" t="n">
+      <c r="G305" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H305" s="3" t="n">
+      <c r="H305" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I305" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J305" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA305" s="3"/>
-      <c r="XFB305" s="3"/>
-      <c r="XFC305" s="3"/>
-      <c r="XFD305" s="3"/>
-    </row>
-    <row r="306" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="3" t="s">
+      <c r="I305" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J305" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA305" s="4"/>
+      <c r="XFB305" s="4"/>
+      <c r="XFC305" s="4"/>
+      <c r="XFD305" s="4"/>
+    </row>
+    <row r="306" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C306" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D306" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E306" s="3" t="n">
+      <c r="D306" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E306" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F306" s="3" t="s">
+      <c r="F306" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="G306" s="3" t="n">
+      <c r="G306" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H306" s="3" t="n">
+      <c r="H306" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I306" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J306" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA306" s="3"/>
-      <c r="XFB306" s="3"/>
-      <c r="XFC306" s="3"/>
-      <c r="XFD306" s="3"/>
+      <c r="I306" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J306" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA306" s="4"/>
+      <c r="XFB306" s="4"/>
+      <c r="XFC306" s="4"/>
+      <c r="XFD306" s="4"/>
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
@@ -14360,113 +14370,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="3" t="s">
+    <row r="333" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C333" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D333" s="3" t="n">
+      <c r="D333" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E333" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F333" s="3" t="s">
+      <c r="E333" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F333" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="G333" s="3" t="n">
+      <c r="G333" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H333" s="3" t="n">
+      <c r="H333" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I333" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J333" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA333" s="3"/>
-      <c r="XFB333" s="3"/>
-      <c r="XFC333" s="3"/>
-      <c r="XFD333" s="3"/>
-    </row>
-    <row r="334" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="3" t="s">
+      <c r="I333" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J333" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA333" s="4"/>
+      <c r="XFB333" s="4"/>
+      <c r="XFC333" s="4"/>
+      <c r="XFD333" s="4"/>
+    </row>
+    <row r="334" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C334" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D334" s="3" t="n">
+      <c r="D334" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E334" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F334" s="3" t="s">
+      <c r="E334" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F334" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="G334" s="3" t="n">
+      <c r="G334" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H334" s="3" t="n">
+      <c r="H334" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I334" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J334" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA334" s="3"/>
-      <c r="XFB334" s="3"/>
-      <c r="XFC334" s="3"/>
-      <c r="XFD334" s="3"/>
-    </row>
-    <row r="335" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="3" t="s">
+      <c r="I334" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J334" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA334" s="4"/>
+      <c r="XFB334" s="4"/>
+      <c r="XFC334" s="4"/>
+      <c r="XFD334" s="4"/>
+    </row>
+    <row r="335" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C335" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D335" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E335" s="3" t="n">
+      <c r="D335" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E335" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F335" s="3" t="s">
+      <c r="F335" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="G335" s="3" t="n">
+      <c r="G335" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H335" s="3" t="n">
+      <c r="H335" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I335" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J335" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA335" s="3"/>
-      <c r="XFB335" s="3"/>
-      <c r="XFC335" s="3"/>
-      <c r="XFD335" s="3"/>
+      <c r="I335" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J335" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA335" s="4"/>
+      <c r="XFB335" s="4"/>
+      <c r="XFC335" s="4"/>
+      <c r="XFD335" s="4"/>
     </row>
     <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
@@ -14532,113 +14542,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="3" t="s">
+    <row r="338" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="C338" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D338" s="3" t="n">
+      <c r="D338" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="E338" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F338" s="3" t="s">
+      <c r="E338" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F338" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="G338" s="3" t="n">
+      <c r="G338" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H338" s="3" t="n">
+      <c r="H338" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I338" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J338" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA338" s="3"/>
-      <c r="XFB338" s="3"/>
-      <c r="XFC338" s="3"/>
-      <c r="XFD338" s="3"/>
-    </row>
-    <row r="339" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="3" t="s">
+      <c r="I338" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J338" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA338" s="4"/>
+      <c r="XFB338" s="4"/>
+      <c r="XFC338" s="4"/>
+      <c r="XFD338" s="4"/>
+    </row>
+    <row r="339" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="C339" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D339" s="3" t="n">
+      <c r="D339" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E339" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F339" s="3" t="s">
+      <c r="E339" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F339" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="G339" s="3" t="n">
+      <c r="G339" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H339" s="3" t="n">
+      <c r="H339" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I339" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J339" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA339" s="3"/>
-      <c r="XFB339" s="3"/>
-      <c r="XFC339" s="3"/>
-      <c r="XFD339" s="3"/>
-    </row>
-    <row r="340" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="3" t="s">
+      <c r="I339" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J339" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA339" s="4"/>
+      <c r="XFB339" s="4"/>
+      <c r="XFC339" s="4"/>
+      <c r="XFD339" s="4"/>
+    </row>
+    <row r="340" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="C340" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D340" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E340" s="3" t="n">
+      <c r="D340" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E340" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F340" s="3" t="s">
+      <c r="F340" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="G340" s="3" t="n">
+      <c r="G340" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H340" s="3" t="n">
+      <c r="H340" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I340" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J340" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA340" s="3"/>
-      <c r="XFB340" s="3"/>
-      <c r="XFC340" s="3"/>
-      <c r="XFD340" s="3"/>
+      <c r="I340" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J340" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA340" s="4"/>
+      <c r="XFB340" s="4"/>
+      <c r="XFC340" s="4"/>
+      <c r="XFD340" s="4"/>
     </row>
     <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
@@ -14756,77 +14766,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="3" t="s">
+    <row r="345" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B345" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="C345" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D345" s="3" t="n">
+      <c r="D345" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E345" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F345" s="4" t="s">
+      <c r="E345" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F345" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="G345" s="4" t="n">
+      <c r="G345" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="H345" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J345" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA345" s="3"/>
-      <c r="XFB345" s="3"/>
-      <c r="XFC345" s="3"/>
-      <c r="XFD345" s="3"/>
-    </row>
-    <row r="346" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="3" t="s">
+      <c r="H345" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I345" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J345" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA345" s="4"/>
+      <c r="XFB345" s="4"/>
+      <c r="XFC345" s="4"/>
+      <c r="XFD345" s="4"/>
+    </row>
+    <row r="346" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B346" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="C346" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D346" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E346" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F346" s="4" t="s">
+      <c r="D346" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E346" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F346" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="G346" s="4" t="n">
+      <c r="G346" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="H346" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J346" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA346" s="3"/>
-      <c r="XFB346" s="3"/>
-      <c r="XFC346" s="3"/>
-      <c r="XFD346" s="3"/>
+      <c r="H346" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I346" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J346" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA346" s="4"/>
+      <c r="XFB346" s="4"/>
+      <c r="XFC346" s="4"/>
+      <c r="XFD346" s="4"/>
     </row>
     <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
@@ -15292,83 +15302,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="3" t="s">
+    <row r="363" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="B363" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="C363" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D363" s="3" t="n">
+      <c r="D363" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="E363" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F363" s="4" t="s">
+      <c r="E363" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F363" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="G363" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H363" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J363" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA363" s="3"/>
-      <c r="XFB363" s="3"/>
-      <c r="XFC363" s="3"/>
-      <c r="XFD363" s="3"/>
-    </row>
-    <row r="364" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="3" t="s">
+      <c r="G363" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H363" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I363" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J363" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA363" s="4"/>
+      <c r="XFB363" s="4"/>
+      <c r="XFC363" s="4"/>
+      <c r="XFD363" s="4"/>
+    </row>
+    <row r="364" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="B364" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="C364" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D364" s="3" t="n">
+      <c r="D364" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E364" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F364" s="4" t="s">
+      <c r="E364" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F364" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="G364" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H364" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J364" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA364" s="3"/>
-      <c r="XFB364" s="3"/>
-      <c r="XFC364" s="3"/>
-      <c r="XFD364" s="3"/>
+      <c r="G364" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H364" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I364" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J364" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA364" s="4"/>
+      <c r="XFB364" s="4"/>
+      <c r="XFC364" s="4"/>
+      <c r="XFD364" s="4"/>
     </row>
     <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="B365" s="4" t="s">
         <v>847</v>
       </c>
       <c r="C365" s="1" t="s">
@@ -15400,7 +15410,7 @@
       <c r="A366" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="B366" s="4" t="s">
         <v>850</v>
       </c>
       <c r="C366" s="1" t="s">
@@ -15892,113 +15902,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="3" t="s">
+    <row r="383" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B383" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="C383" s="3" t="s">
+      <c r="C383" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D383" s="3" t="n">
+      <c r="D383" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="E383" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F383" s="3" t="s">
+      <c r="E383" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F383" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="G383" s="3" t="n">
+      <c r="G383" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="H383" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="I383" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J383" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA383" s="3"/>
-      <c r="XFB383" s="3"/>
-      <c r="XFC383" s="3"/>
-      <c r="XFD383" s="3"/>
-    </row>
-    <row r="384" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="3" t="s">
+      <c r="H383" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="I383" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J383" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA383" s="4"/>
+      <c r="XFB383" s="4"/>
+      <c r="XFC383" s="4"/>
+      <c r="XFD383" s="4"/>
+    </row>
+    <row r="384" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B384" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="C384" s="3" t="s">
+      <c r="C384" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D384" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E384" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F384" s="3" t="s">
+      <c r="D384" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E384" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F384" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="G384" s="3" t="n">
+      <c r="G384" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="H384" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="I384" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J384" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA384" s="3"/>
-      <c r="XFB384" s="3"/>
-      <c r="XFC384" s="3"/>
-      <c r="XFD384" s="3"/>
-    </row>
-    <row r="385" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="3" t="s">
+      <c r="H384" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="I384" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J384" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA384" s="4"/>
+      <c r="XFB384" s="4"/>
+      <c r="XFC384" s="4"/>
+      <c r="XFD384" s="4"/>
+    </row>
+    <row r="385" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B385" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="C385" s="3" t="s">
+      <c r="C385" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="D385" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E385" s="3" t="n">
+      <c r="D385" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E385" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F385" s="3" t="s">
+      <c r="F385" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="G385" s="3" t="n">
+      <c r="G385" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="H385" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="I385" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J385" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA385" s="3"/>
-      <c r="XFB385" s="3"/>
-      <c r="XFC385" s="3"/>
-      <c r="XFD385" s="3"/>
+      <c r="H385" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="I385" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J385" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA385" s="4"/>
+      <c r="XFB385" s="4"/>
+      <c r="XFC385" s="4"/>
+      <c r="XFD385" s="4"/>
     </row>
     <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
@@ -16502,221 +16512,221 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="3" t="s">
+    <row r="403" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="B403" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="C403" s="3" t="s">
+      <c r="C403" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D403" s="3" t="n">
+      <c r="D403" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="E403" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F403" s="4" t="s">
+      <c r="E403" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F403" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="G403" s="4" t="n">
+      <c r="G403" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="H403" s="4" t="n">
+      <c r="H403" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="I403" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J403" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA403" s="3"/>
-      <c r="XFB403" s="3"/>
-      <c r="XFC403" s="3"/>
-      <c r="XFD403" s="3"/>
-    </row>
-    <row r="404" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="3" t="s">
+      <c r="I403" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J403" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA403" s="4"/>
+      <c r="XFB403" s="4"/>
+      <c r="XFC403" s="4"/>
+      <c r="XFD403" s="4"/>
+    </row>
+    <row r="404" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="B404" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="C404" s="3" t="s">
+      <c r="C404" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D404" s="3" t="n">
+      <c r="D404" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E404" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F404" s="4" t="s">
+      <c r="E404" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F404" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="G404" s="4" t="n">
+      <c r="G404" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="H404" s="4" t="n">
+      <c r="H404" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="I404" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J404" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA404" s="3"/>
-      <c r="XFB404" s="3"/>
-      <c r="XFC404" s="3"/>
-      <c r="XFD404" s="3"/>
-    </row>
-    <row r="405" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="3" t="s">
+      <c r="I404" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J404" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA404" s="4"/>
+      <c r="XFB404" s="4"/>
+      <c r="XFC404" s="4"/>
+      <c r="XFD404" s="4"/>
+    </row>
+    <row r="405" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="B405" s="3" t="s">
+      <c r="B405" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="C405" s="3" t="s">
+      <c r="C405" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="D405" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E405" s="3" t="n">
+      <c r="D405" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E405" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F405" s="4" t="s">
+      <c r="F405" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="G405" s="4" t="n">
+      <c r="G405" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="H405" s="4" t="n">
+      <c r="H405" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="I405" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J405" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA405" s="3"/>
-      <c r="XFB405" s="3"/>
-      <c r="XFC405" s="3"/>
-      <c r="XFD405" s="3"/>
-    </row>
-    <row r="406" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="3" t="s">
+      <c r="I405" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J405" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA405" s="4"/>
+      <c r="XFB405" s="4"/>
+      <c r="XFC405" s="4"/>
+      <c r="XFD405" s="4"/>
+    </row>
+    <row r="406" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="B406" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="C406" s="3" t="s">
+      <c r="C406" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D406" s="3" t="n">
+      <c r="D406" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="E406" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F406" s="4" t="s">
+      <c r="E406" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F406" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="G406" s="4" t="n">
+      <c r="G406" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H406" s="4" t="n">
+      <c r="H406" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I406" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J406" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA406" s="3"/>
-      <c r="XFB406" s="3"/>
-      <c r="XFC406" s="3"/>
-      <c r="XFD406" s="3"/>
-    </row>
-    <row r="407" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="3" t="s">
+      <c r="I406" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J406" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA406" s="4"/>
+      <c r="XFB406" s="4"/>
+      <c r="XFC406" s="4"/>
+      <c r="XFD406" s="4"/>
+    </row>
+    <row r="407" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="B407" s="3" t="s">
+      <c r="B407" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="C407" s="3" t="s">
+      <c r="C407" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D407" s="3" t="n">
+      <c r="D407" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E407" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F407" s="4" t="s">
+      <c r="E407" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F407" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="G407" s="4" t="n">
+      <c r="G407" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H407" s="4" t="n">
+      <c r="H407" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I407" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J407" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA407" s="3"/>
-      <c r="XFB407" s="3"/>
-      <c r="XFC407" s="3"/>
-      <c r="XFD407" s="3"/>
-    </row>
-    <row r="408" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="3" t="s">
+      <c r="I407" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J407" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA407" s="4"/>
+      <c r="XFB407" s="4"/>
+      <c r="XFC407" s="4"/>
+      <c r="XFD407" s="4"/>
+    </row>
+    <row r="408" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="B408" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="C408" s="3" t="s">
+      <c r="C408" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D408" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E408" s="3" t="n">
+      <c r="D408" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E408" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F408" s="4" t="s">
+      <c r="F408" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="G408" s="4" t="n">
+      <c r="G408" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H408" s="4" t="n">
+      <c r="H408" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I408" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J408" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA408" s="3"/>
-      <c r="XFB408" s="3"/>
-      <c r="XFC408" s="3"/>
-      <c r="XFD408" s="3"/>
+      <c r="I408" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J408" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA408" s="4"/>
+      <c r="XFB408" s="4"/>
+      <c r="XFC408" s="4"/>
+      <c r="XFD408" s="4"/>
     </row>
     <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
@@ -17298,113 +17308,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="3" t="s">
+    <row r="429" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="B429" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="C429" s="3" t="s">
+      <c r="C429" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D429" s="3" t="n">
+      <c r="D429" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="E429" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F429" s="4" t="s">
+      <c r="E429" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F429" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="G429" s="4" t="n">
+      <c r="G429" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H429" s="4" t="n">
+      <c r="H429" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I429" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J429" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA429" s="3"/>
-      <c r="XFB429" s="3"/>
-      <c r="XFC429" s="3"/>
-      <c r="XFD429" s="3"/>
-    </row>
-    <row r="430" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="3" t="s">
+      <c r="I429" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J429" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA429" s="4"/>
+      <c r="XFB429" s="4"/>
+      <c r="XFC429" s="4"/>
+      <c r="XFD429" s="4"/>
+    </row>
+    <row r="430" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="B430" s="3" t="s">
+      <c r="B430" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="C430" s="3" t="s">
+      <c r="C430" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D430" s="3" t="n">
+      <c r="D430" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E430" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F430" s="4" t="s">
+      <c r="E430" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F430" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="G430" s="4" t="n">
+      <c r="G430" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H430" s="4" t="n">
+      <c r="H430" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I430" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J430" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA430" s="3"/>
-      <c r="XFB430" s="3"/>
-      <c r="XFC430" s="3"/>
-      <c r="XFD430" s="3"/>
-    </row>
-    <row r="431" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="3" t="s">
+      <c r="I430" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J430" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA430" s="4"/>
+      <c r="XFB430" s="4"/>
+      <c r="XFC430" s="4"/>
+      <c r="XFD430" s="4"/>
+    </row>
+    <row r="431" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="B431" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="C431" s="3" t="s">
+      <c r="C431" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D431" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E431" s="3" t="n">
+      <c r="D431" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E431" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F431" s="4" t="s">
+      <c r="F431" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="G431" s="4" t="n">
+      <c r="G431" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H431" s="4" t="n">
+      <c r="H431" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I431" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J431" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA431" s="3"/>
-      <c r="XFB431" s="3"/>
-      <c r="XFC431" s="3"/>
-      <c r="XFD431" s="3"/>
+      <c r="I431" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J431" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA431" s="4"/>
+      <c r="XFB431" s="4"/>
+      <c r="XFC431" s="4"/>
+      <c r="XFD431" s="4"/>
     </row>
     <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
@@ -17493,149 +17503,149 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="3" t="s">
+    <row r="435" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="B435" s="3" t="s">
+      <c r="B435" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="C435" s="3" t="s">
+      <c r="C435" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D435" s="3" t="n">
+      <c r="D435" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="E435" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F435" s="4" t="s">
+      <c r="E435" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F435" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="G435" s="4" t="n">
+      <c r="G435" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="H435" s="4" t="n">
+      <c r="H435" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="I435" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J435" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA435" s="3"/>
-      <c r="XFB435" s="3"/>
-      <c r="XFC435" s="3"/>
-      <c r="XFD435" s="3"/>
-    </row>
-    <row r="436" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="3" t="s">
+      <c r="I435" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J435" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA435" s="4"/>
+      <c r="XFB435" s="4"/>
+      <c r="XFC435" s="4"/>
+      <c r="XFD435" s="4"/>
+    </row>
+    <row r="436" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="B436" s="3" t="s">
+      <c r="B436" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="C436" s="3" t="s">
+      <c r="C436" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D436" s="3" t="n">
+      <c r="D436" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E436" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F436" s="4" t="s">
+      <c r="E436" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F436" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="G436" s="4" t="n">
+      <c r="G436" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="H436" s="4" t="n">
+      <c r="H436" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="I436" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J436" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA436" s="3"/>
-      <c r="XFB436" s="3"/>
-      <c r="XFC436" s="3"/>
-      <c r="XFD436" s="3"/>
-    </row>
-    <row r="437" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="3" t="s">
+      <c r="I436" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J436" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA436" s="4"/>
+      <c r="XFB436" s="4"/>
+      <c r="XFC436" s="4"/>
+      <c r="XFD436" s="4"/>
+    </row>
+    <row r="437" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="B437" s="3" t="s">
+      <c r="B437" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="C437" s="3" t="s">
+      <c r="C437" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D437" s="3" t="n">
+      <c r="D437" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="E437" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F437" s="4" t="s">
+      <c r="E437" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F437" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="G437" s="4" t="n">
+      <c r="G437" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="H437" s="4" t="n">
+      <c r="H437" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="I437" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J437" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA437" s="3"/>
-      <c r="XFB437" s="3"/>
-      <c r="XFC437" s="3"/>
-      <c r="XFD437" s="3"/>
-    </row>
-    <row r="438" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="3" t="s">
+      <c r="I437" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J437" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA437" s="4"/>
+      <c r="XFB437" s="4"/>
+      <c r="XFC437" s="4"/>
+      <c r="XFD437" s="4"/>
+    </row>
+    <row r="438" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="B438" s="3" t="s">
+      <c r="B438" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="C438" s="3" t="s">
+      <c r="C438" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D438" s="3" t="n">
+      <c r="D438" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E438" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F438" s="4" t="s">
+      <c r="E438" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F438" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="G438" s="4" t="n">
+      <c r="G438" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="H438" s="4" t="n">
+      <c r="H438" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="I438" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J438" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA438" s="3"/>
-      <c r="XFB438" s="3"/>
-      <c r="XFC438" s="3"/>
-      <c r="XFD438" s="3"/>
+      <c r="I438" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J438" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA438" s="4"/>
+      <c r="XFB438" s="4"/>
+      <c r="XFC438" s="4"/>
+      <c r="XFD438" s="4"/>
     </row>
     <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
@@ -17695,113 +17705,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="3" t="s">
+    <row r="441" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="B441" s="3" t="s">
+      <c r="B441" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="C441" s="3" t="s">
+      <c r="C441" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="D441" s="3" t="n">
+      <c r="D441" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E441" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F441" s="3" t="s">
+      <c r="E441" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F441" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="G441" s="3" t="n">
+      <c r="G441" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="H441" s="3" t="n">
+      <c r="H441" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I441" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J441" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA441" s="3"/>
-      <c r="XFB441" s="3"/>
-      <c r="XFC441" s="3"/>
-      <c r="XFD441" s="3"/>
-    </row>
-    <row r="442" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="3" t="s">
+      <c r="I441" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J441" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA441" s="4"/>
+      <c r="XFB441" s="4"/>
+      <c r="XFC441" s="4"/>
+      <c r="XFD441" s="4"/>
+    </row>
+    <row r="442" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="B442" s="3" t="s">
+      <c r="B442" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="C442" s="3" t="s">
+      <c r="C442" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D442" s="3" t="n">
+      <c r="D442" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E442" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F442" s="3" t="s">
+      <c r="E442" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F442" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="G442" s="3" t="n">
+      <c r="G442" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="H442" s="3" t="n">
+      <c r="H442" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I442" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J442" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA442" s="3"/>
-      <c r="XFB442" s="3"/>
-      <c r="XFC442" s="3"/>
-      <c r="XFD442" s="3"/>
-    </row>
-    <row r="443" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="3" t="s">
+      <c r="I442" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J442" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA442" s="4"/>
+      <c r="XFB442" s="4"/>
+      <c r="XFC442" s="4"/>
+      <c r="XFD442" s="4"/>
+    </row>
+    <row r="443" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="B443" s="3" t="s">
+      <c r="B443" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="C443" s="3" t="s">
+      <c r="C443" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D443" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E443" s="3" t="n">
+      <c r="D443" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E443" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F443" s="3" t="s">
+      <c r="F443" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="G443" s="3" t="n">
+      <c r="G443" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="H443" s="3" t="n">
+      <c r="H443" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I443" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J443" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA443" s="3"/>
-      <c r="XFB443" s="3"/>
-      <c r="XFC443" s="3"/>
-      <c r="XFD443" s="3"/>
+      <c r="I443" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J443" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA443" s="4"/>
+      <c r="XFB443" s="4"/>
+      <c r="XFC443" s="4"/>
+      <c r="XFD443" s="4"/>
     </row>
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
@@ -18035,113 +18045,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="3" t="s">
+    <row r="452" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="B452" s="3" t="s">
+      <c r="B452" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="C452" s="3" t="s">
+      <c r="C452" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D452" s="3" t="n">
+      <c r="D452" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E452" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F452" s="4" t="s">
+      <c r="E452" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F452" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="G452" s="4" t="n">
+      <c r="G452" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="H452" s="4" t="n">
+      <c r="H452" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="I452" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J452" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA452" s="3"/>
-      <c r="XFB452" s="3"/>
-      <c r="XFC452" s="3"/>
-      <c r="XFD452" s="3"/>
-    </row>
-    <row r="453" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="3" t="s">
+      <c r="I452" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J452" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA452" s="4"/>
+      <c r="XFB452" s="4"/>
+      <c r="XFC452" s="4"/>
+      <c r="XFD452" s="4"/>
+    </row>
+    <row r="453" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="B453" s="3" t="s">
+      <c r="B453" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="C453" s="3" t="s">
+      <c r="C453" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D453" s="3" t="n">
+      <c r="D453" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E453" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F453" s="4" t="s">
+      <c r="E453" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F453" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="G453" s="4" t="n">
+      <c r="G453" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="H453" s="4" t="n">
+      <c r="H453" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="I453" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J453" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA453" s="3"/>
-      <c r="XFB453" s="3"/>
-      <c r="XFC453" s="3"/>
-      <c r="XFD453" s="3"/>
-    </row>
-    <row r="454" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="3" t="s">
+      <c r="I453" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J453" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA453" s="4"/>
+      <c r="XFB453" s="4"/>
+      <c r="XFC453" s="4"/>
+      <c r="XFD453" s="4"/>
+    </row>
+    <row r="454" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="B454" s="3" t="s">
+      <c r="B454" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="C454" s="3" t="s">
+      <c r="C454" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D454" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E454" s="3" t="n">
+      <c r="D454" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E454" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F454" s="4" t="s">
+      <c r="F454" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="G454" s="4" t="n">
+      <c r="G454" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="H454" s="4" t="n">
+      <c r="H454" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="I454" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J454" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA454" s="3"/>
-      <c r="XFB454" s="3"/>
-      <c r="XFC454" s="3"/>
-      <c r="XFD454" s="3"/>
+      <c r="I454" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J454" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA454" s="4"/>
+      <c r="XFB454" s="4"/>
+      <c r="XFC454" s="4"/>
+      <c r="XFD454" s="4"/>
     </row>
     <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
@@ -18520,401 +18530,401 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="3" t="s">
+    <row r="468" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="B468" s="3" t="s">
+      <c r="B468" s="4" t="s">
         <v>1061</v>
       </c>
-      <c r="C468" s="3" t="s">
+      <c r="C468" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D468" s="3" t="n">
+      <c r="D468" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="E468" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F468" s="4" t="s">
+      <c r="E468" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F468" s="5" t="s">
         <v>1062</v>
       </c>
-      <c r="G468" s="4" t="n">
+      <c r="G468" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H468" s="4" t="n">
+      <c r="H468" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I468" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J468" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA468" s="3"/>
-      <c r="XFB468" s="3"/>
-      <c r="XFC468" s="3"/>
-      <c r="XFD468" s="3"/>
-    </row>
-    <row r="469" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="3" t="s">
+      <c r="I468" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J468" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA468" s="4"/>
+      <c r="XFB468" s="4"/>
+      <c r="XFC468" s="4"/>
+      <c r="XFD468" s="4"/>
+    </row>
+    <row r="469" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="B469" s="3" t="s">
+      <c r="B469" s="4" t="s">
         <v>1064</v>
       </c>
-      <c r="C469" s="3" t="s">
+      <c r="C469" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D469" s="3" t="n">
+      <c r="D469" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E469" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F469" s="4" t="s">
+      <c r="E469" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F469" s="5" t="s">
         <v>1062</v>
       </c>
-      <c r="G469" s="4" t="n">
+      <c r="G469" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H469" s="4" t="n">
+      <c r="H469" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I469" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J469" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA469" s="3"/>
-      <c r="XFB469" s="3"/>
-      <c r="XFC469" s="3"/>
-      <c r="XFD469" s="3"/>
-    </row>
-    <row r="470" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="3" t="s">
+      <c r="I469" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J469" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA469" s="4"/>
+      <c r="XFB469" s="4"/>
+      <c r="XFC469" s="4"/>
+      <c r="XFD469" s="4"/>
+    </row>
+    <row r="470" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="B470" s="3" t="s">
+      <c r="B470" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="C470" s="3" t="s">
+      <c r="C470" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D470" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E470" s="3" t="n">
+      <c r="D470" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E470" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F470" s="4" t="s">
+      <c r="F470" s="5" t="s">
         <v>1062</v>
       </c>
-      <c r="G470" s="4" t="n">
+      <c r="G470" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H470" s="4" t="n">
+      <c r="H470" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I470" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J470" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA470" s="3"/>
-      <c r="XFB470" s="3"/>
-      <c r="XFC470" s="3"/>
-      <c r="XFD470" s="3"/>
-    </row>
-    <row r="471" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="3" t="s">
+      <c r="I470" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J470" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA470" s="4"/>
+      <c r="XFB470" s="4"/>
+      <c r="XFC470" s="4"/>
+      <c r="XFD470" s="4"/>
+    </row>
+    <row r="471" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="B471" s="3" t="s">
+      <c r="B471" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="C471" s="3" t="s">
+      <c r="C471" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D471" s="3" t="n">
+      <c r="D471" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="E471" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F471" s="4" t="s">
+      <c r="E471" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F471" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="G471" s="4" t="n">
+      <c r="G471" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H471" s="4" t="n">
+      <c r="H471" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I471" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J471" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA471" s="3"/>
-      <c r="XFB471" s="3"/>
-      <c r="XFC471" s="3"/>
-      <c r="XFD471" s="3"/>
-    </row>
-    <row r="472" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="3" t="s">
+      <c r="I471" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J471" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA471" s="4"/>
+      <c r="XFB471" s="4"/>
+      <c r="XFC471" s="4"/>
+      <c r="XFD471" s="4"/>
+    </row>
+    <row r="472" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="4" t="s">
         <v>1070</v>
       </c>
-      <c r="B472" s="3" t="s">
+      <c r="B472" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="C472" s="3" t="s">
+      <c r="C472" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D472" s="3" t="n">
+      <c r="D472" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E472" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F472" s="4" t="s">
+      <c r="E472" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F472" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="G472" s="4" t="n">
+      <c r="G472" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H472" s="4" t="n">
+      <c r="H472" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I472" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J472" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA472" s="3"/>
-      <c r="XFB472" s="3"/>
-      <c r="XFC472" s="3"/>
-      <c r="XFD472" s="3"/>
-    </row>
-    <row r="473" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="3" t="s">
+      <c r="I472" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J472" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA472" s="4"/>
+      <c r="XFB472" s="4"/>
+      <c r="XFC472" s="4"/>
+      <c r="XFD472" s="4"/>
+    </row>
+    <row r="473" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="4" t="s">
         <v>1072</v>
       </c>
-      <c r="B473" s="3" t="s">
+      <c r="B473" s="4" t="s">
         <v>1073</v>
       </c>
-      <c r="C473" s="3" t="s">
+      <c r="C473" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D473" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E473" s="3" t="n">
+      <c r="D473" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E473" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F473" s="4" t="s">
+      <c r="F473" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="G473" s="4" t="n">
+      <c r="G473" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H473" s="4" t="n">
+      <c r="H473" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I473" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J473" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA473" s="3"/>
-      <c r="XFB473" s="3"/>
-      <c r="XFC473" s="3"/>
-      <c r="XFD473" s="3"/>
-    </row>
-    <row r="474" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="3" t="s">
+      <c r="I473" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J473" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA473" s="4"/>
+      <c r="XFB473" s="4"/>
+      <c r="XFC473" s="4"/>
+      <c r="XFD473" s="4"/>
+    </row>
+    <row r="474" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="B474" s="3" t="s">
+      <c r="B474" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="C474" s="3" t="s">
+      <c r="C474" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D474" s="3" t="n">
+      <c r="D474" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="E474" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F474" s="4" t="s">
+      <c r="E474" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F474" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="G474" s="4" t="n">
+      <c r="G474" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H474" s="4" t="n">
+      <c r="H474" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I474" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J474" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA474" s="3"/>
-      <c r="XFB474" s="3"/>
-      <c r="XFC474" s="3"/>
-      <c r="XFD474" s="3"/>
-    </row>
-    <row r="475" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="3" t="s">
+      <c r="I474" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J474" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA474" s="4"/>
+      <c r="XFB474" s="4"/>
+      <c r="XFC474" s="4"/>
+      <c r="XFD474" s="4"/>
+    </row>
+    <row r="475" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="B475" s="3" t="s">
+      <c r="B475" s="4" t="s">
         <v>1078</v>
       </c>
-      <c r="C475" s="3" t="s">
+      <c r="C475" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D475" s="3" t="n">
+      <c r="D475" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E475" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F475" s="4" t="s">
+      <c r="E475" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F475" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="G475" s="4" t="n">
+      <c r="G475" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H475" s="4" t="n">
+      <c r="H475" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I475" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J475" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA475" s="3"/>
-      <c r="XFB475" s="3"/>
-      <c r="XFC475" s="3"/>
-      <c r="XFD475" s="3"/>
-    </row>
-    <row r="476" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="3" t="s">
+      <c r="I475" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J475" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA475" s="4"/>
+      <c r="XFB475" s="4"/>
+      <c r="XFC475" s="4"/>
+      <c r="XFD475" s="4"/>
+    </row>
+    <row r="476" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="B476" s="3" t="s">
+      <c r="B476" s="4" t="s">
         <v>1080</v>
       </c>
-      <c r="C476" s="3" t="s">
+      <c r="C476" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D476" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E476" s="3" t="n">
+      <c r="D476" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E476" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F476" s="4" t="s">
+      <c r="F476" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="G476" s="4" t="n">
+      <c r="G476" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H476" s="4" t="n">
+      <c r="H476" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I476" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J476" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA476" s="3"/>
-      <c r="XFB476" s="3"/>
-      <c r="XFC476" s="3"/>
-      <c r="XFD476" s="3"/>
-    </row>
-    <row r="477" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="3" t="s">
+      <c r="I476" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J476" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA476" s="4"/>
+      <c r="XFB476" s="4"/>
+      <c r="XFC476" s="4"/>
+      <c r="XFD476" s="4"/>
+    </row>
+    <row r="477" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="B477" s="3" t="s">
+      <c r="B477" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="C477" s="3" t="s">
+      <c r="C477" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D477" s="3" t="n">
+      <c r="D477" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="E477" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F477" s="4" t="s">
+      <c r="E477" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F477" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="G477" s="4" t="n">
+      <c r="G477" s="5" t="n">
         <v>240</v>
       </c>
-      <c r="H477" s="4" t="n">
+      <c r="H477" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="I477" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J477" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA477" s="3"/>
-      <c r="XFB477" s="3"/>
-      <c r="XFC477" s="3"/>
-      <c r="XFD477" s="3"/>
-    </row>
-    <row r="478" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="3" t="s">
+      <c r="I477" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J477" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA477" s="4"/>
+      <c r="XFB477" s="4"/>
+      <c r="XFC477" s="4"/>
+      <c r="XFD477" s="4"/>
+    </row>
+    <row r="478" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="4" t="s">
         <v>1084</v>
       </c>
-      <c r="B478" s="3" t="s">
+      <c r="B478" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="C478" s="3" t="s">
+      <c r="C478" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D478" s="3" t="n">
+      <c r="D478" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E478" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F478" s="4" t="s">
+      <c r="E478" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F478" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="G478" s="4" t="n">
+      <c r="G478" s="5" t="n">
         <v>240</v>
       </c>
-      <c r="H478" s="4" t="n">
+      <c r="H478" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="I478" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J478" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA478" s="3"/>
-      <c r="XFB478" s="3"/>
-      <c r="XFC478" s="3"/>
-      <c r="XFD478" s="3"/>
+      <c r="I478" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J478" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA478" s="4"/>
+      <c r="XFB478" s="4"/>
+      <c r="XFC478" s="4"/>
+      <c r="XFD478" s="4"/>
     </row>
     <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
@@ -18974,77 +18984,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="3" t="s">
+    <row r="481" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="B481" s="3" t="s">
+      <c r="B481" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="C481" s="3" t="s">
+      <c r="C481" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D481" s="3" t="n">
+      <c r="D481" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="E481" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F481" s="4" t="s">
+      <c r="E481" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F481" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="G481" s="4" t="n">
+      <c r="G481" s="5" t="n">
         <v>240</v>
       </c>
-      <c r="H481" s="4" t="n">
+      <c r="H481" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="I481" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J481" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA481" s="3"/>
-      <c r="XFB481" s="3"/>
-      <c r="XFC481" s="3"/>
-      <c r="XFD481" s="3"/>
-    </row>
-    <row r="482" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="3" t="s">
+      <c r="I481" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J481" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA481" s="4"/>
+      <c r="XFB481" s="4"/>
+      <c r="XFC481" s="4"/>
+      <c r="XFD481" s="4"/>
+    </row>
+    <row r="482" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="4" t="s">
         <v>1093</v>
       </c>
-      <c r="B482" s="3" t="s">
+      <c r="B482" s="4" t="s">
         <v>1094</v>
       </c>
-      <c r="C482" s="3" t="s">
+      <c r="C482" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D482" s="3" t="n">
+      <c r="D482" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E482" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F482" s="4" t="s">
+      <c r="E482" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F482" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="G482" s="4" t="n">
+      <c r="G482" s="5" t="n">
         <v>240</v>
       </c>
-      <c r="H482" s="4" t="n">
+      <c r="H482" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="I482" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J482" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA482" s="3"/>
-      <c r="XFB482" s="3"/>
-      <c r="XFC482" s="3"/>
-      <c r="XFD482" s="3"/>
+      <c r="I482" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J482" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA482" s="4"/>
+      <c r="XFB482" s="4"/>
+      <c r="XFC482" s="4"/>
+      <c r="XFD482" s="4"/>
     </row>
     <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
@@ -19104,257 +19114,257 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="3" t="s">
+    <row r="485" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="4" t="s">
         <v>1099</v>
       </c>
-      <c r="B485" s="3" t="s">
+      <c r="B485" s="4" t="s">
         <v>1100</v>
       </c>
-      <c r="C485" s="3" t="s">
+      <c r="C485" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D485" s="3" t="n">
+      <c r="D485" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="E485" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F485" s="4" t="s">
+      <c r="E485" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F485" s="5" t="s">
         <v>1101</v>
       </c>
-      <c r="G485" s="4" t="n">
+      <c r="G485" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="H485" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J485" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA485" s="3"/>
-      <c r="XFB485" s="3"/>
-      <c r="XFC485" s="3"/>
-      <c r="XFD485" s="3"/>
-    </row>
-    <row r="486" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="3" t="s">
+      <c r="H485" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I485" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J485" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA485" s="4"/>
+      <c r="XFB485" s="4"/>
+      <c r="XFC485" s="4"/>
+      <c r="XFD485" s="4"/>
+    </row>
+    <row r="486" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="B486" s="3" t="s">
+      <c r="B486" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="C486" s="3" t="s">
+      <c r="C486" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D486" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E486" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F486" s="4" t="s">
+      <c r="D486" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E486" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F486" s="5" t="s">
         <v>1101</v>
       </c>
-      <c r="G486" s="4" t="n">
+      <c r="G486" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="H486" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J486" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA486" s="3"/>
-      <c r="XFB486" s="3"/>
-      <c r="XFC486" s="3"/>
-      <c r="XFD486" s="3"/>
-    </row>
-    <row r="487" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="3" t="s">
+      <c r="H486" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I486" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J486" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA486" s="4"/>
+      <c r="XFB486" s="4"/>
+      <c r="XFC486" s="4"/>
+      <c r="XFD486" s="4"/>
+    </row>
+    <row r="487" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="B487" s="3" t="s">
+      <c r="B487" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="C487" s="3" t="s">
+      <c r="C487" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D487" s="3" t="n">
+      <c r="D487" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E487" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F487" s="4" t="s">
+      <c r="E487" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F487" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="G487" s="4" t="n">
+      <c r="G487" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="H487" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J487" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA487" s="3"/>
-      <c r="XFB487" s="3"/>
-      <c r="XFC487" s="3"/>
-      <c r="XFD487" s="3"/>
-    </row>
-    <row r="488" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="3" t="s">
+      <c r="H487" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I487" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J487" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA487" s="4"/>
+      <c r="XFB487" s="4"/>
+      <c r="XFC487" s="4"/>
+      <c r="XFD487" s="4"/>
+    </row>
+    <row r="488" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="B488" s="3" t="s">
+      <c r="B488" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="C488" s="3" t="s">
+      <c r="C488" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D488" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E488" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F488" s="4" t="s">
+      <c r="D488" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E488" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F488" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="G488" s="4" t="n">
+      <c r="G488" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="H488" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J488" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA488" s="3"/>
-      <c r="XFB488" s="3"/>
-      <c r="XFC488" s="3"/>
-      <c r="XFD488" s="3"/>
-    </row>
-    <row r="489" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="3" t="s">
+      <c r="H488" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I488" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J488" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA488" s="4"/>
+      <c r="XFB488" s="4"/>
+      <c r="XFC488" s="4"/>
+      <c r="XFD488" s="4"/>
+    </row>
+    <row r="489" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="B489" s="3" t="s">
+      <c r="B489" s="4" t="s">
         <v>1110</v>
       </c>
-      <c r="C489" s="3" t="s">
+      <c r="C489" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D489" s="3" t="n">
+      <c r="D489" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="E489" s="3" t="n">
+      <c r="E489" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F489" s="4" t="s">
+      <c r="F489" s="5" t="s">
         <v>1111</v>
       </c>
-      <c r="G489" s="4" t="n">
+      <c r="G489" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="H489" s="4" t="n">
+      <c r="H489" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I489" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J489" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA489" s="3"/>
-      <c r="XFB489" s="3"/>
-      <c r="XFC489" s="3"/>
-      <c r="XFD489" s="3"/>
-    </row>
-    <row r="490" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="3" t="s">
+      <c r="I489" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J489" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA489" s="4"/>
+      <c r="XFB489" s="4"/>
+      <c r="XFC489" s="4"/>
+      <c r="XFD489" s="4"/>
+    </row>
+    <row r="490" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="B490" s="3" t="s">
+      <c r="B490" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="C490" s="3" t="s">
+      <c r="C490" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D490" s="3" t="n">
+      <c r="D490" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E490" s="3" t="n">
+      <c r="E490" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F490" s="4" t="s">
+      <c r="F490" s="5" t="s">
         <v>1111</v>
       </c>
-      <c r="G490" s="4" t="n">
+      <c r="G490" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="H490" s="4" t="n">
+      <c r="H490" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I490" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J490" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA490" s="3"/>
-      <c r="XFB490" s="3"/>
-      <c r="XFC490" s="3"/>
-      <c r="XFD490" s="3"/>
-    </row>
-    <row r="491" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="3" t="s">
+      <c r="I490" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J490" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA490" s="4"/>
+      <c r="XFB490" s="4"/>
+      <c r="XFC490" s="4"/>
+      <c r="XFD490" s="4"/>
+    </row>
+    <row r="491" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="B491" s="3" t="s">
+      <c r="B491" s="4" t="s">
         <v>1115</v>
       </c>
-      <c r="C491" s="3" t="s">
+      <c r="C491" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D491" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E491" s="3" t="n">
+      <c r="D491" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E491" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="F491" s="4" t="s">
+      <c r="F491" s="5" t="s">
         <v>1111</v>
       </c>
-      <c r="G491" s="4" t="n">
+      <c r="G491" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="H491" s="4" t="n">
+      <c r="H491" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I491" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J491" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA491" s="3"/>
-      <c r="XFB491" s="3"/>
-      <c r="XFC491" s="3"/>
-      <c r="XFD491" s="3"/>
+      <c r="I491" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J491" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA491" s="4"/>
+      <c r="XFB491" s="4"/>
+      <c r="XFC491" s="4"/>
+      <c r="XFD491" s="4"/>
     </row>
     <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
@@ -19762,509 +19772,509 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="3" t="s">
+    <row r="506" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="B506" s="3" t="s">
+      <c r="B506" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="C506" s="3" t="s">
+      <c r="C506" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D506" s="3" t="n">
+      <c r="D506" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="E506" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F506" s="4" t="s">
+      <c r="E506" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F506" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="G506" s="4" t="n">
+      <c r="G506" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="H506" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J506" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA506" s="3"/>
-      <c r="XFB506" s="3"/>
-      <c r="XFC506" s="3"/>
-      <c r="XFD506" s="3"/>
-    </row>
-    <row r="507" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="3" t="s">
+      <c r="H506" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I506" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J506" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA506" s="4"/>
+      <c r="XFB506" s="4"/>
+      <c r="XFC506" s="4"/>
+      <c r="XFD506" s="4"/>
+    </row>
+    <row r="507" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="B507" s="3" t="s">
+      <c r="B507" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="C507" s="3" t="s">
+      <c r="C507" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D507" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E507" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F507" s="4" t="s">
+      <c r="D507" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E507" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F507" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="G507" s="4" t="n">
+      <c r="G507" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="H507" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J507" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA507" s="3"/>
-      <c r="XFB507" s="3"/>
-      <c r="XFC507" s="3"/>
-      <c r="XFD507" s="3"/>
-    </row>
-    <row r="508" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="3" t="s">
+      <c r="H507" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I507" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J507" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA507" s="4"/>
+      <c r="XFB507" s="4"/>
+      <c r="XFC507" s="4"/>
+      <c r="XFD507" s="4"/>
+    </row>
+    <row r="508" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="B508" s="3" t="s">
+      <c r="B508" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="C508" s="3" t="s">
+      <c r="C508" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D508" s="3" t="n">
+      <c r="D508" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="E508" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F508" s="4" t="s">
+      <c r="E508" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F508" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="G508" s="4" t="n">
+      <c r="G508" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="H508" s="4" t="n">
+      <c r="H508" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I508" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J508" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA508" s="3"/>
-      <c r="XFB508" s="3"/>
-      <c r="XFC508" s="3"/>
-      <c r="XFD508" s="3"/>
-    </row>
-    <row r="509" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="3" t="s">
+      <c r="I508" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J508" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA508" s="4"/>
+      <c r="XFB508" s="4"/>
+      <c r="XFC508" s="4"/>
+      <c r="XFD508" s="4"/>
+    </row>
+    <row r="509" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="4" t="s">
         <v>1152</v>
       </c>
-      <c r="B509" s="3" t="s">
+      <c r="B509" s="4" t="s">
         <v>1153</v>
       </c>
-      <c r="C509" s="3" t="s">
+      <c r="C509" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D509" s="3" t="n">
+      <c r="D509" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E509" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F509" s="4" t="s">
+      <c r="E509" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F509" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="G509" s="4" t="n">
+      <c r="G509" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="H509" s="4" t="n">
+      <c r="H509" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I509" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J509" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA509" s="3"/>
-      <c r="XFB509" s="3"/>
-      <c r="XFC509" s="3"/>
-      <c r="XFD509" s="3"/>
-    </row>
-    <row r="510" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="3" t="s">
+      <c r="I509" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J509" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA509" s="4"/>
+      <c r="XFB509" s="4"/>
+      <c r="XFC509" s="4"/>
+      <c r="XFD509" s="4"/>
+    </row>
+    <row r="510" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="4" t="s">
         <v>1154</v>
       </c>
-      <c r="B510" s="3" t="s">
+      <c r="B510" s="4" t="s">
         <v>1155</v>
       </c>
-      <c r="C510" s="3" t="s">
+      <c r="C510" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D510" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E510" s="3" t="n">
+      <c r="D510" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E510" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F510" s="4" t="s">
+      <c r="F510" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="G510" s="4" t="n">
+      <c r="G510" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="H510" s="4" t="n">
+      <c r="H510" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I510" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J510" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA510" s="3"/>
-      <c r="XFB510" s="3"/>
-      <c r="XFC510" s="3"/>
-      <c r="XFD510" s="3"/>
-    </row>
-    <row r="511" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="3" t="s">
+      <c r="I510" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J510" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA510" s="4"/>
+      <c r="XFB510" s="4"/>
+      <c r="XFC510" s="4"/>
+      <c r="XFD510" s="4"/>
+    </row>
+    <row r="511" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="4" t="s">
         <v>1156</v>
       </c>
-      <c r="B511" s="3" t="s">
+      <c r="B511" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="C511" s="3" t="s">
+      <c r="C511" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D511" s="3" t="n">
+      <c r="D511" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="E511" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F511" s="4" t="s">
+      <c r="E511" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F511" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="G511" s="4" t="n">
+      <c r="G511" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="H511" s="4" t="n">
+      <c r="H511" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I511" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J511" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA511" s="3"/>
-      <c r="XFB511" s="3"/>
-      <c r="XFC511" s="3"/>
-      <c r="XFD511" s="3"/>
-    </row>
-    <row r="512" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="3" t="s">
+      <c r="I511" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J511" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA511" s="4"/>
+      <c r="XFB511" s="4"/>
+      <c r="XFC511" s="4"/>
+      <c r="XFD511" s="4"/>
+    </row>
+    <row r="512" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="4" t="s">
         <v>1159</v>
       </c>
-      <c r="B512" s="3" t="s">
+      <c r="B512" s="4" t="s">
         <v>1160</v>
       </c>
-      <c r="C512" s="3" t="s">
+      <c r="C512" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D512" s="3" t="n">
+      <c r="D512" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E512" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F512" s="4" t="s">
+      <c r="E512" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F512" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="G512" s="4" t="n">
+      <c r="G512" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="H512" s="4" t="n">
+      <c r="H512" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I512" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J512" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA512" s="3"/>
-      <c r="XFB512" s="3"/>
-      <c r="XFC512" s="3"/>
-      <c r="XFD512" s="3"/>
-    </row>
-    <row r="513" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="3" t="s">
+      <c r="I512" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J512" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA512" s="4"/>
+      <c r="XFB512" s="4"/>
+      <c r="XFC512" s="4"/>
+      <c r="XFD512" s="4"/>
+    </row>
+    <row r="513" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="B513" s="3" t="s">
+      <c r="B513" s="4" t="s">
         <v>1162</v>
       </c>
-      <c r="C513" s="3" t="s">
+      <c r="C513" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D513" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E513" s="3" t="n">
+      <c r="D513" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E513" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F513" s="4" t="s">
+      <c r="F513" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="G513" s="4" t="n">
+      <c r="G513" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="H513" s="4" t="n">
+      <c r="H513" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I513" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J513" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA513" s="3"/>
-      <c r="XFB513" s="3"/>
-      <c r="XFC513" s="3"/>
-      <c r="XFD513" s="3"/>
-    </row>
-    <row r="514" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="3" t="s">
+      <c r="I513" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J513" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA513" s="4"/>
+      <c r="XFB513" s="4"/>
+      <c r="XFC513" s="4"/>
+      <c r="XFD513" s="4"/>
+    </row>
+    <row r="514" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="4" t="s">
         <v>1163</v>
       </c>
-      <c r="B514" s="3" t="s">
+      <c r="B514" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="C514" s="3" t="s">
+      <c r="C514" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D514" s="3" t="n">
+      <c r="D514" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E514" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F514" s="4" t="s">
+      <c r="E514" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F514" s="5" t="s">
         <v>1165</v>
       </c>
-      <c r="G514" s="4" t="n">
+      <c r="G514" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="H514" s="4" t="n">
+      <c r="H514" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="I514" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J514" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA514" s="3"/>
-      <c r="XFB514" s="3"/>
-      <c r="XFC514" s="3"/>
-      <c r="XFD514" s="3"/>
-    </row>
-    <row r="515" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="3" t="s">
+      <c r="I514" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J514" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA514" s="4"/>
+      <c r="XFB514" s="4"/>
+      <c r="XFC514" s="4"/>
+      <c r="XFD514" s="4"/>
+    </row>
+    <row r="515" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="4" t="s">
         <v>1166</v>
       </c>
-      <c r="B515" s="3" t="s">
+      <c r="B515" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="C515" s="3" t="s">
+      <c r="C515" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D515" s="3" t="n">
+      <c r="D515" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E515" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F515" s="4" t="s">
+      <c r="E515" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F515" s="5" t="s">
         <v>1165</v>
       </c>
-      <c r="G515" s="4" t="n">
+      <c r="G515" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="H515" s="4" t="n">
+      <c r="H515" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="I515" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J515" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA515" s="3"/>
-      <c r="XFB515" s="3"/>
-      <c r="XFC515" s="3"/>
-      <c r="XFD515" s="3"/>
-    </row>
-    <row r="516" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="3" t="s">
+      <c r="I515" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J515" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA515" s="4"/>
+      <c r="XFB515" s="4"/>
+      <c r="XFC515" s="4"/>
+      <c r="XFD515" s="4"/>
+    </row>
+    <row r="516" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="4" t="s">
         <v>1168</v>
       </c>
-      <c r="B516" s="3" t="s">
+      <c r="B516" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="C516" s="3" t="s">
+      <c r="C516" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D516" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E516" s="3" t="n">
+      <c r="D516" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E516" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F516" s="4" t="s">
+      <c r="F516" s="5" t="s">
         <v>1165</v>
       </c>
-      <c r="G516" s="4" t="n">
+      <c r="G516" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="H516" s="4" t="n">
+      <c r="H516" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="I516" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J516" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA516" s="3"/>
-      <c r="XFB516" s="3"/>
-      <c r="XFC516" s="3"/>
-      <c r="XFD516" s="3"/>
-    </row>
-    <row r="517" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="3" t="s">
+      <c r="I516" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J516" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA516" s="4"/>
+      <c r="XFB516" s="4"/>
+      <c r="XFC516" s="4"/>
+      <c r="XFD516" s="4"/>
+    </row>
+    <row r="517" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="B517" s="3" t="s">
+      <c r="B517" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="C517" s="3" t="s">
+      <c r="C517" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D517" s="3" t="n">
+      <c r="D517" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E517" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F517" s="4" t="s">
+      <c r="E517" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F517" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="G517" s="4" t="n">
+      <c r="G517" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="H517" s="4" t="n">
+      <c r="H517" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="I517" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J517" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA517" s="3"/>
-      <c r="XFB517" s="3"/>
-      <c r="XFC517" s="3"/>
-      <c r="XFD517" s="3"/>
-    </row>
-    <row r="518" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="3" t="s">
+      <c r="I517" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J517" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA517" s="4"/>
+      <c r="XFB517" s="4"/>
+      <c r="XFC517" s="4"/>
+      <c r="XFD517" s="4"/>
+    </row>
+    <row r="518" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="4" t="s">
         <v>1173</v>
       </c>
-      <c r="B518" s="3" t="s">
+      <c r="B518" s="4" t="s">
         <v>1174</v>
       </c>
-      <c r="C518" s="3" t="s">
+      <c r="C518" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D518" s="3" t="n">
+      <c r="D518" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E518" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F518" s="4" t="s">
+      <c r="E518" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F518" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="G518" s="4" t="n">
+      <c r="G518" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="H518" s="4" t="n">
+      <c r="H518" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="I518" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J518" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA518" s="3"/>
-      <c r="XFB518" s="3"/>
-      <c r="XFC518" s="3"/>
-      <c r="XFD518" s="3"/>
-    </row>
-    <row r="519" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="3" t="s">
+      <c r="I518" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J518" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA518" s="4"/>
+      <c r="XFB518" s="4"/>
+      <c r="XFC518" s="4"/>
+      <c r="XFD518" s="4"/>
+    </row>
+    <row r="519" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="B519" s="3" t="s">
+      <c r="B519" s="4" t="s">
         <v>1176</v>
       </c>
-      <c r="C519" s="3" t="s">
+      <c r="C519" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D519" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E519" s="3" t="n">
+      <c r="D519" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E519" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F519" s="4" t="s">
+      <c r="F519" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="G519" s="4" t="n">
+      <c r="G519" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="H519" s="4" t="n">
+      <c r="H519" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="I519" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J519" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XFA519" s="3"/>
-      <c r="XFB519" s="3"/>
-      <c r="XFC519" s="3"/>
-      <c r="XFD519" s="3"/>
+      <c r="I519" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J519" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="XFA519" s="4"/>
+      <c r="XFB519" s="4"/>
+      <c r="XFC519" s="4"/>
+      <c r="XFD519" s="4"/>
     </row>
     <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
